--- a/attached_assets/Product Data_05_13_2025.xlsx
+++ b/attached_assets/Product Data_05_13_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bathcraft-my.sharepoint.com/personal/olep00903843_maax_com/Documents/PythonScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_BCFEBD4F73F15EB6C55EF89F1835901893D73E67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD788D93-1E4D-4C33-9ADB-4CF5C955C1FB}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_BCFEBD4F73F15EB6C55EF89F1835901893D73E67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A5664ADD-B78D-44FB-A7E4-01628B76D406}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2640" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2565" windowWidth="38640" windowHeight="21120" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shower Bases" sheetId="1" r:id="rId1"/>
@@ -31,16 +31,29 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Screens!$A$1:$H$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Shower Doors'!$A$1:$O$219</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Showers!$A$1:$I$151</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Tub Doors'!$A$1:$J$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Tub Doors'!$A$1:$K$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Tub Showers'!$A$1:$H$105</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Walls!$A$1:$L$34</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8423" uniqueCount="1974">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8468" uniqueCount="1975">
   <si>
     <t>Unique ID</t>
   </si>
@@ -5962,6 +5975,9 @@
   </si>
   <si>
     <t>Reveal Sleek 71 Return Panel for 34 in.</t>
+  </si>
+  <si>
+    <t>Door  Type</t>
   </si>
 </sst>
 </file>
@@ -6063,6 +6079,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16073,12 +16093,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:N156"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="205.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.77734375" bestFit="1" customWidth="1"/>
   </cols>
@@ -36826,10 +36849,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36840,12 +36863,13 @@
     <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.44140625" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -36865,111 +36889,123 @@
         <v>1181</v>
       </c>
       <c r="G1" t="s">
+        <v>1974</v>
+      </c>
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>1110</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1782</v>
+        <v>1855</v>
       </c>
       <c r="B2" t="s">
-        <v>1783</v>
+        <v>1856</v>
       </c>
       <c r="D2" t="s">
-        <v>778</v>
+        <v>553</v>
       </c>
       <c r="E2" t="s">
-        <v>895</v>
+        <v>1371</v>
       </c>
       <c r="F2" t="s">
-        <v>1784</v>
+        <v>924</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>1293</v>
       </c>
       <c r="H2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>1347</v>
+        <v>309</v>
       </c>
       <c r="J2" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1857</v>
+      </c>
+      <c r="K2" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>1785</v>
+        <v>1811</v>
       </c>
       <c r="B3" t="s">
-        <v>1786</v>
+        <v>1812</v>
       </c>
       <c r="D3" t="s">
-        <v>778</v>
+        <v>1303</v>
       </c>
       <c r="E3" t="s">
-        <v>895</v>
+        <v>1055</v>
       </c>
       <c r="F3" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>1245</v>
+        <v>309</v>
       </c>
       <c r="J3" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1214</v>
+      </c>
+      <c r="K3" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>1787</v>
+        <v>1821</v>
       </c>
       <c r="B4" t="s">
-        <v>1788</v>
+        <v>1822</v>
       </c>
       <c r="D4" t="s">
-        <v>521</v>
+        <v>1055</v>
       </c>
       <c r="E4" t="s">
         <v>895</v>
       </c>
       <c r="F4" t="s">
-        <v>895</v>
+        <v>878</v>
       </c>
       <c r="G4" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s">
-        <v>1498</v>
+        <v>309</v>
       </c>
       <c r="J4" t="s">
-        <v>1499</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1214</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>1789</v>
+        <v>1871</v>
       </c>
       <c r="B5" t="s">
-        <v>1790</v>
+        <v>1822</v>
       </c>
       <c r="D5" t="s">
         <v>1055</v>
@@ -36981,111 +37017,123 @@
         <v>878</v>
       </c>
       <c r="G5" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H5" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
-        <v>1251</v>
+        <v>309</v>
       </c>
       <c r="J5" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1214</v>
+      </c>
+      <c r="K5" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1791</v>
+        <v>1797</v>
       </c>
       <c r="B6" t="s">
-        <v>1792</v>
+        <v>1798</v>
       </c>
       <c r="D6" t="s">
-        <v>558</v>
+        <v>1055</v>
       </c>
       <c r="E6" t="s">
-        <v>1371</v>
+        <v>895</v>
       </c>
       <c r="F6" t="s">
-        <v>778</v>
+        <v>878</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s">
-        <v>1362</v>
+        <v>309</v>
       </c>
       <c r="J6" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1214</v>
+      </c>
+      <c r="K6" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>1793</v>
+        <v>1804</v>
       </c>
       <c r="B7" t="s">
-        <v>1794</v>
+        <v>1805</v>
       </c>
       <c r="D7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E7" t="s">
         <v>1055</v>
-      </c>
-      <c r="E7" t="s">
-        <v>895</v>
       </c>
       <c r="F7" t="s">
         <v>878</v>
       </c>
       <c r="G7" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" t="s">
         <v>309</v>
       </c>
-      <c r="I7" t="s">
-        <v>1466</v>
-      </c>
       <c r="J7" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1278</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>1795</v>
+        <v>1836</v>
       </c>
       <c r="B8" t="s">
-        <v>1796</v>
+        <v>1837</v>
       </c>
       <c r="D8" t="s">
-        <v>1303</v>
+        <v>1055</v>
       </c>
       <c r="E8" t="s">
-        <v>1055</v>
+        <v>895</v>
       </c>
       <c r="F8" t="s">
         <v>878</v>
       </c>
       <c r="G8" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H8" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="I8" t="s">
-        <v>1298</v>
+        <v>309</v>
       </c>
       <c r="J8" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1278</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>1797</v>
+        <v>1845</v>
       </c>
       <c r="B9" t="s">
-        <v>1798</v>
+        <v>1488</v>
       </c>
       <c r="D9" t="s">
         <v>1055</v>
@@ -37097,401 +37145,443 @@
         <v>878</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" t="s">
         <v>309</v>
       </c>
-      <c r="I9" t="s">
-        <v>1214</v>
-      </c>
       <c r="J9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="K9" t="s">
         <v>1215</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>1799</v>
+        <v>1846</v>
       </c>
       <c r="B10" t="s">
-        <v>1800</v>
+        <v>1847</v>
       </c>
       <c r="D10" t="s">
-        <v>1352</v>
+        <v>924</v>
       </c>
       <c r="E10" t="s">
-        <v>935</v>
+        <v>878</v>
       </c>
       <c r="F10" t="s">
+        <v>878</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" t="s">
+        <v>309</v>
+      </c>
+      <c r="J10" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>1851</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D11" t="s">
+        <v>878</v>
+      </c>
+      <c r="E11" t="s">
+        <v>502</v>
+      </c>
+      <c r="F11" t="s">
+        <v>878</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" t="s">
+        <v>1294</v>
+      </c>
+      <c r="K11" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E12" t="s">
+        <v>956</v>
+      </c>
+      <c r="F12" t="s">
         <v>778</v>
       </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" t="s">
         <v>21</v>
       </c>
-      <c r="I10" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J10" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="J12" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1792</v>
+      </c>
+      <c r="D13" t="s">
+        <v>558</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F13" t="s">
+        <v>778</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" t="s">
+        <v>1362</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D14" t="s">
+        <v>778</v>
+      </c>
+      <c r="E14" t="s">
+        <v>895</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="s">
+        <v>1210</v>
+      </c>
+      <c r="K14" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>1787</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1788</v>
+      </c>
+      <c r="D15" t="s">
+        <v>521</v>
+      </c>
+      <c r="E15" t="s">
+        <v>895</v>
+      </c>
+      <c r="F15" t="s">
+        <v>895</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" t="s">
+        <v>1498</v>
+      </c>
+      <c r="K15" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>1848</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E16" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" t="s">
+        <v>956</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H16" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s">
+        <v>21</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K16" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>1872</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D17" t="s">
+        <v>778</v>
+      </c>
+      <c r="E17" t="s">
+        <v>895</v>
+      </c>
+      <c r="F17" t="s">
+        <v>956</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1853</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1854</v>
+      </c>
+      <c r="D18" t="s">
+        <v>778</v>
+      </c>
+      <c r="E18" t="s">
+        <v>895</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="s">
+        <v>1850</v>
+      </c>
+      <c r="K18" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>1801</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B19" t="s">
         <v>1802</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D19" t="s">
         <v>778</v>
-      </c>
-      <c r="E11" t="s">
-        <v>895</v>
-      </c>
-      <c r="F11" t="s">
-        <v>956</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" t="s">
-        <v>1803</v>
-      </c>
-      <c r="J11" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F12" t="s">
-        <v>878</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" t="s">
-        <v>309</v>
-      </c>
-      <c r="I12" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J12" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>1806</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1807</v>
-      </c>
-      <c r="D13" t="s">
-        <v>778</v>
-      </c>
-      <c r="E13" t="s">
-        <v>895</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" t="s">
-        <v>1210</v>
-      </c>
-      <c r="J13" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>1808</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D14" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E14" t="s">
-        <v>956</v>
-      </c>
-      <c r="F14" t="s">
-        <v>778</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" t="s">
-        <v>1362</v>
-      </c>
-      <c r="J14" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1812</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F15" t="s">
-        <v>878</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" t="s">
-        <v>309</v>
-      </c>
-      <c r="I15" t="s">
-        <v>1214</v>
-      </c>
-      <c r="J15" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1814</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1718</v>
-      </c>
-      <c r="E16" t="s">
-        <v>502</v>
-      </c>
-      <c r="F16" t="s">
-        <v>878</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" t="s">
-        <v>309</v>
-      </c>
-      <c r="I16" t="s">
-        <v>1710</v>
-      </c>
-      <c r="J16" t="s">
-        <v>1711</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1816</v>
-      </c>
-      <c r="D17" t="s">
-        <v>553</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F17" t="s">
-        <v>1686</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-      <c r="H17" t="s">
-        <v>309</v>
-      </c>
-      <c r="I17" t="s">
-        <v>1475</v>
-      </c>
-      <c r="J17" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>1817</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1818</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1303</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F18" t="s">
-        <v>878</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>312</v>
-      </c>
-      <c r="I18" t="s">
-        <v>1251</v>
-      </c>
-      <c r="J18" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>1819</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D19" t="s">
-        <v>521</v>
       </c>
       <c r="E19" t="s">
         <v>895</v>
       </c>
       <c r="F19" t="s">
-        <v>895</v>
+        <v>956</v>
       </c>
       <c r="G19" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H19" t="s">
-        <v>347</v>
+        <v>20</v>
       </c>
       <c r="I19" t="s">
-        <v>1542</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1803</v>
+      </c>
+      <c r="K19" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>1821</v>
+        <v>1785</v>
       </c>
       <c r="B20" t="s">
-        <v>1822</v>
+        <v>1786</v>
       </c>
       <c r="D20" t="s">
-        <v>1055</v>
+        <v>778</v>
       </c>
       <c r="E20" t="s">
         <v>895</v>
       </c>
       <c r="F20" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="G20" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H20" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>1214</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1245</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>1823</v>
+        <v>1817</v>
       </c>
       <c r="B21" t="s">
-        <v>1824</v>
+        <v>1818</v>
       </c>
       <c r="D21" t="s">
-        <v>1357</v>
+        <v>1303</v>
       </c>
       <c r="E21" t="s">
         <v>1055</v>
       </c>
       <c r="F21" t="s">
-        <v>778</v>
+        <v>878</v>
       </c>
       <c r="G21" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>1231</v>
+        <v>312</v>
       </c>
       <c r="J21" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1251</v>
+      </c>
+      <c r="K21" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>1825</v>
+        <v>1789</v>
       </c>
       <c r="B22" t="s">
-        <v>1826</v>
+        <v>1790</v>
       </c>
       <c r="D22" t="s">
         <v>1055</v>
       </c>
       <c r="E22" t="s">
-        <v>1371</v>
+        <v>895</v>
       </c>
       <c r="F22" t="s">
         <v>878</v>
       </c>
       <c r="G22" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" t="s">
-        <v>1270</v>
+        <v>312</v>
       </c>
       <c r="J22" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1251</v>
+      </c>
+      <c r="K22" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>1827</v>
+        <v>1834</v>
       </c>
       <c r="B23" t="s">
-        <v>1828</v>
+        <v>1835</v>
       </c>
       <c r="D23" t="s">
         <v>1055</v>
@@ -37503,53 +37593,59 @@
         <v>878</v>
       </c>
       <c r="G23" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H23" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" t="s">
         <v>312</v>
       </c>
-      <c r="I23" t="s">
-        <v>1298</v>
-      </c>
       <c r="J23" t="s">
+        <v>1251</v>
+      </c>
+      <c r="K23" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>1829</v>
+        <v>1795</v>
       </c>
       <c r="B24" t="s">
-        <v>1830</v>
+        <v>1796</v>
       </c>
       <c r="D24" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E24" t="s">
         <v>1055</v>
-      </c>
-      <c r="E24" t="s">
-        <v>895</v>
       </c>
       <c r="F24" t="s">
         <v>878</v>
       </c>
       <c r="G24" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H24" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I24" t="s">
-        <v>1831</v>
+        <v>312</v>
       </c>
       <c r="J24" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K24" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>1832</v>
+        <v>1869</v>
       </c>
       <c r="B25" t="s">
-        <v>1833</v>
+        <v>1870</v>
       </c>
       <c r="D25" t="s">
         <v>1055</v>
@@ -37561,24 +37657,27 @@
         <v>878</v>
       </c>
       <c r="G25" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H25" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I25" t="s">
-        <v>1382</v>
+        <v>312</v>
       </c>
       <c r="J25" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K25" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>1834</v>
+        <v>1827</v>
       </c>
       <c r="B26" t="s">
-        <v>1835</v>
+        <v>1828</v>
       </c>
       <c r="D26" t="s">
         <v>1055</v>
@@ -37590,285 +37689,315 @@
         <v>878</v>
       </c>
       <c r="G26" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" t="s">
         <v>312</v>
       </c>
-      <c r="I26" t="s">
-        <v>1251</v>
-      </c>
       <c r="J26" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K26" t="s">
         <v>1242</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>1836</v>
+        <v>1859</v>
       </c>
       <c r="B27" t="s">
-        <v>1837</v>
+        <v>1860</v>
       </c>
       <c r="D27" t="s">
-        <v>1055</v>
+        <v>521</v>
       </c>
       <c r="E27" t="s">
         <v>895</v>
       </c>
       <c r="F27" t="s">
-        <v>878</v>
+        <v>924</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H27" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I27" t="s">
-        <v>1278</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1425</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>1838</v>
+        <v>1865</v>
       </c>
       <c r="B28" t="s">
-        <v>1839</v>
+        <v>1866</v>
       </c>
       <c r="D28" t="s">
+        <v>553</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F28" t="s">
         <v>1055</v>
       </c>
-      <c r="E28" t="s">
-        <v>895</v>
-      </c>
-      <c r="F28" t="s">
-        <v>878</v>
-      </c>
       <c r="G28" t="s">
-        <v>20</v>
+        <v>1293</v>
       </c>
       <c r="H28" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>1241</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1857</v>
+      </c>
+      <c r="K28" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>1840</v>
+        <v>1829</v>
       </c>
       <c r="B29" t="s">
-        <v>1820</v>
+        <v>1830</v>
       </c>
       <c r="D29" t="s">
-        <v>521</v>
+        <v>1055</v>
       </c>
       <c r="E29" t="s">
         <v>895</v>
       </c>
       <c r="F29" t="s">
+        <v>878</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H29" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" t="s">
+        <v>309</v>
+      </c>
+      <c r="J29" t="s">
+        <v>1831</v>
+      </c>
+      <c r="K29" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1055</v>
+      </c>
+      <c r="E30" t="s">
         <v>895</v>
       </c>
-      <c r="G29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" t="s">
-        <v>347</v>
-      </c>
-      <c r="I29" t="s">
-        <v>1542</v>
-      </c>
-      <c r="J29" t="s">
-        <v>1543</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>1841</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D30" t="s">
-        <v>558</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
+        <v>878</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H30" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" t="s">
+        <v>309</v>
+      </c>
+      <c r="J30" t="s">
+        <v>1382</v>
+      </c>
+      <c r="K30" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1718</v>
+      </c>
+      <c r="E31" t="s">
+        <v>502</v>
+      </c>
+      <c r="F31" t="s">
+        <v>878</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" t="s">
+        <v>309</v>
+      </c>
+      <c r="J31" t="s">
+        <v>1710</v>
+      </c>
+      <c r="K31" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D32" t="s">
+        <v>553</v>
+      </c>
+      <c r="E32" t="s">
         <v>1371</v>
       </c>
-      <c r="F30" t="s">
-        <v>778</v>
-      </c>
-      <c r="G30" t="s">
-        <v>20</v>
-      </c>
-      <c r="H30" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" t="s">
-        <v>1231</v>
-      </c>
-      <c r="J30" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>1843</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1844</v>
-      </c>
-      <c r="D31" t="s">
-        <v>778</v>
-      </c>
-      <c r="E31" t="s">
-        <v>895</v>
-      </c>
-      <c r="F31" t="s">
-        <v>1784</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" t="s">
-        <v>1347</v>
-      </c>
-      <c r="J31" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>1845</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1488</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
+        <v>1686</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H32" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" t="s">
+        <v>309</v>
+      </c>
+      <c r="J32" t="s">
+        <v>1475</v>
+      </c>
+      <c r="K32" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D33" t="s">
         <v>1055</v>
       </c>
-      <c r="E32" t="s">
-        <v>895</v>
-      </c>
-      <c r="F32" t="s">
-        <v>878</v>
-      </c>
-      <c r="G32" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" t="s">
-        <v>309</v>
-      </c>
-      <c r="I32" t="s">
-        <v>1278</v>
-      </c>
-      <c r="J32" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1846</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1847</v>
-      </c>
-      <c r="D33" t="s">
-        <v>924</v>
-      </c>
       <c r="E33" t="s">
-        <v>878</v>
+        <v>1371</v>
       </c>
       <c r="F33" t="s">
         <v>878</v>
       </c>
       <c r="G33" t="s">
-        <v>20</v>
+        <v>1293</v>
       </c>
       <c r="H33" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>1294</v>
+        <v>21</v>
       </c>
       <c r="J33" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1270</v>
+      </c>
+      <c r="K33" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>1848</v>
+        <v>1843</v>
       </c>
       <c r="B34" t="s">
-        <v>1849</v>
+        <v>1844</v>
       </c>
       <c r="D34" t="s">
-        <v>1303</v>
+        <v>778</v>
       </c>
       <c r="E34" t="s">
-        <v>553</v>
+        <v>895</v>
       </c>
       <c r="F34" t="s">
-        <v>956</v>
+        <v>1784</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H34" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" t="s">
         <v>21</v>
       </c>
-      <c r="I34" t="s">
-        <v>1850</v>
-      </c>
       <c r="J34" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1347</v>
+      </c>
+      <c r="K34" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>1851</v>
+        <v>1782</v>
       </c>
       <c r="B35" t="s">
-        <v>1852</v>
+        <v>1783</v>
       </c>
       <c r="D35" t="s">
-        <v>878</v>
+        <v>778</v>
       </c>
       <c r="E35" t="s">
-        <v>502</v>
+        <v>895</v>
       </c>
       <c r="F35" t="s">
-        <v>878</v>
+        <v>1784</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H35" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>1294</v>
+        <v>21</v>
       </c>
       <c r="J35" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1347</v>
+      </c>
+      <c r="K35" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>1853</v>
+        <v>1861</v>
       </c>
       <c r="B36" t="s">
-        <v>1854</v>
+        <v>1862</v>
       </c>
       <c r="D36" t="s">
         <v>778</v>
@@ -37877,284 +38006,318 @@
         <v>895</v>
       </c>
       <c r="F36" t="s">
-        <v>1037</v>
+        <v>1784</v>
       </c>
       <c r="G36" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H36" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" t="s">
         <v>21</v>
       </c>
-      <c r="I36" t="s">
-        <v>1850</v>
-      </c>
       <c r="J36" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1274</v>
+      </c>
+      <c r="K36" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>1855</v>
+        <v>1867</v>
       </c>
       <c r="B37" t="s">
-        <v>1856</v>
+        <v>1868</v>
       </c>
       <c r="D37" t="s">
-        <v>553</v>
+        <v>778</v>
       </c>
       <c r="E37" t="s">
-        <v>1371</v>
+        <v>895</v>
       </c>
       <c r="F37" t="s">
-        <v>924</v>
+        <v>1784</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H37" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>1857</v>
+        <v>21</v>
       </c>
       <c r="J37" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1274</v>
+      </c>
+      <c r="K37" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>1859</v>
+        <v>1793</v>
       </c>
       <c r="B38" t="s">
-        <v>1860</v>
+        <v>1794</v>
       </c>
       <c r="D38" t="s">
-        <v>521</v>
+        <v>1055</v>
       </c>
       <c r="E38" t="s">
         <v>895</v>
       </c>
       <c r="F38" t="s">
-        <v>924</v>
+        <v>878</v>
       </c>
       <c r="G38" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>1425</v>
+        <v>309</v>
       </c>
       <c r="J38" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1466</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>1861</v>
+        <v>1838</v>
       </c>
       <c r="B39" t="s">
-        <v>1862</v>
+        <v>1839</v>
       </c>
       <c r="D39" t="s">
-        <v>778</v>
+        <v>1055</v>
       </c>
       <c r="E39" t="s">
         <v>895</v>
       </c>
       <c r="F39" t="s">
-        <v>1784</v>
+        <v>878</v>
       </c>
       <c r="G39" t="s">
-        <v>20</v>
+        <v>1190</v>
       </c>
       <c r="H39" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" t="s">
+        <v>309</v>
+      </c>
+      <c r="J39" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K39" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1800</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E40" t="s">
+        <v>935</v>
+      </c>
+      <c r="F40" t="s">
+        <v>778</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H40" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" t="s">
         <v>21</v>
       </c>
-      <c r="I39" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J39" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="J40" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K40" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F41" t="s">
+        <v>778</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H41" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" t="s">
+        <v>21</v>
+      </c>
+      <c r="J41" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K41" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D42" t="s">
+        <v>558</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F42" t="s">
+        <v>778</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>21</v>
+      </c>
+      <c r="J42" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>1863</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>1864</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D43" t="s">
         <v>778</v>
-      </c>
-      <c r="E40" t="s">
-        <v>895</v>
-      </c>
-      <c r="F40" t="s">
-        <v>1672</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" t="s">
-        <v>1322</v>
-      </c>
-      <c r="J40" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D41" t="s">
-        <v>553</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1371</v>
-      </c>
-      <c r="F41" t="s">
-        <v>1055</v>
-      </c>
-      <c r="G41" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" t="s">
-        <v>1857</v>
-      </c>
-      <c r="J41" t="s">
-        <v>1858</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>1867</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D42" t="s">
-        <v>778</v>
-      </c>
-      <c r="E42" t="s">
-        <v>895</v>
-      </c>
-      <c r="F42" t="s">
-        <v>1784</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" t="s">
-        <v>1274</v>
-      </c>
-      <c r="J42" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>1869</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1870</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1055</v>
       </c>
       <c r="E43" t="s">
         <v>895</v>
       </c>
       <c r="F43" t="s">
-        <v>878</v>
+        <v>1672</v>
       </c>
       <c r="G43" t="s">
-        <v>20</v>
+        <v>1293</v>
       </c>
       <c r="H43" t="s">
-        <v>312</v>
+        <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>1298</v>
+        <v>21</v>
       </c>
       <c r="J43" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1322</v>
+      </c>
+      <c r="K43" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>1871</v>
+        <v>1819</v>
       </c>
       <c r="B44" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="D44" t="s">
-        <v>1055</v>
+        <v>521</v>
       </c>
       <c r="E44" t="s">
         <v>895</v>
       </c>
       <c r="F44" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="G44" t="s">
-        <v>20</v>
+        <v>1293</v>
       </c>
       <c r="H44" t="s">
-        <v>309</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>1214</v>
+        <v>347</v>
       </c>
       <c r="J44" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1542</v>
+      </c>
+      <c r="K44" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>1872</v>
+        <v>1840</v>
       </c>
       <c r="B45" t="s">
-        <v>1873</v>
+        <v>1820</v>
       </c>
       <c r="D45" t="s">
-        <v>778</v>
+        <v>521</v>
       </c>
       <c r="E45" t="s">
         <v>895</v>
       </c>
       <c r="F45" t="s">
-        <v>956</v>
+        <v>895</v>
       </c>
       <c r="G45" t="s">
-        <v>20</v>
+        <v>1293</v>
       </c>
       <c r="H45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>1850</v>
+        <v>347</v>
       </c>
       <c r="J45" t="s">
-        <v>1192</v>
+        <v>1542</v>
+      </c>
+      <c r="K45" t="s">
+        <v>1543</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J45" xr:uid="{00000000-0009-0000-0000-000007000000}"/>
+  <autoFilter ref="A1:K45" xr:uid="{00000000-0009-0000-0000-000007000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K45">
+      <sortCondition ref="B1:B45"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/attached_assets/Product Data_05_13_2025.xlsx
+++ b/attached_assets/Product Data_05_13_2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bathcraft-my.sharepoint.com/personal/olep00903843_maax_com/Documents/PythonScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="11_BCFEBD4F73F15EB6C55EF89F1835901893D73E67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D31DB76-98FF-4B64-A76A-98E8434C1255}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="11_BCFEBD4F73F15EB6C55EF89F1835901893D73E67" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64A92024-551F-4F9D-8C01-7B670142FAF5}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-2640" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-2565" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shower Bases" sheetId="1" r:id="rId1"/>
@@ -5056,9 +5056,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/walls/103414/images/maax-103414-300-502.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1656088872/abg-graphics/original-images/maax/utile/factory/jpeg/u-factory-vapor-6036-crnr-shk-crop.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/136335/images/maax-136335-975-340.jpg</t>
   </si>
   <si>
@@ -5083,9 +5080,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/138762/images/maax-138762-900-173.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1737472895/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/kameleon-60-978-340.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/139349/images/maax-139349-900-340.jpg</t>
   </si>
   <si>
@@ -5113,9 +5107,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/138541/images/maax-138541-810-340-000.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1667593848/abg-graphics/original-images/maax/multi-brand/doors/uptown-pivot/jpeg/mixed-finish/uptown-pivot-sh60-db-bm-generic-walls-olympia-base.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/138954/images/maax-138954-900-340.jpg</t>
   </si>
   <si>
@@ -5155,9 +5146,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/136693/images/maax-136693-900-340.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/w_1500,h_1260,c_fill/v1660858069/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-48-odyssey-mb-u-tux-zone-deco.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/136655/images/maax-136655-900-084.jpg</t>
   </si>
   <si>
@@ -5182,9 +5170,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/135875/images/maax-135875-900-340.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_square/v1741957958/abg-graphics/original-images/maax/retail/home-depot-exclusives/doors/tonik/maax-tonik-47w-shower-door-rs738-fluted-db.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/137873/images/maax-137873-900-305.jpg</t>
   </si>
   <si>
@@ -5203,9 +5188,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/138996/images/maax-138996-900-305.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_square/v1741957591/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/maax-kameleon-47w-shower-door-rs739-fluted-db.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/138997/images/maax-138997-900-305.jpg</t>
   </si>
   <si>
@@ -5242,9 +5224,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/139579/images/maax-139579-900-173.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/w_1500,h_1260,c_fill/v1664220622/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-odyssey-sh-60-ch-zone-base-deco.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/135238/images/maax-135238-900-084.jpg</t>
   </si>
   <si>
@@ -5263,9 +5242,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/134572/images/maax-134572-900-084.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686675109/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/kameleon-60-900-340.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/139587/images/maax-139587-810-340-000.jpg</t>
   </si>
   <si>
@@ -5422,9 +5398,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/134663/images/maax-134663-900-305.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_square/v1686671954/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/aura6-60-900-340-olympia.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/135236/images/maax-135236-900-084.jpg</t>
   </si>
   <si>
@@ -5494,21 +5467,12 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/139683/images/maax-139683-900-172.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_square/v1741957961/abg-graphics/original-images/maax/retail/home-depot-exclusives/doors/tonik/maax-tonik-ts-59w-rs738-fluted-bn.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/139680/images/maax-139680-900-305.jpg</t>
   </si>
   <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/138994/images/maax-138994-900-305.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686671352/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/aura6-ts-900-340-essence.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_square/v1741792673/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/maax-aura-ts-59w-rs738-fluted-bn.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/135673/images/maax-135673-900-172.jpg</t>
   </si>
   <si>
@@ -5617,108 +5581,9 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/doors/139582/images/maax-139582-900-305.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1681768817/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-60-odyssey-rp-crnr-bn-u-tux-zone-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1695151235/abg-graphics/original-images/maax/showroom/Collection/doors/capella/capella-36rp-bn-crop.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1695151236/abg-graphics/original-images/maax/showroom/Collection/doors/capella/capella-32rp-bn-crop.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692814460/abg-graphics/original-images/maax/multi-brand/doors/manhattan-square/deco/rgb/maax-manhattansquare-mb-round-handle-rokawhite-universal.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1660858077/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-48-odyssey-crnr-ch-u-carrara-zone-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1660858094/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-60-odyssey-crnr-bg-u-carrara-zone-deco.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1667924901/abg-graphics/original-images/maax/multi-brand/doors/duel/jpeg/mixed-finish/duel-ts-exhibit-ch-mb.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686675107/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/kameleon-ts-900-340.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029216/abg-graphics/original-images/maax/multi-brand/doors/polar-tub/jpeg/maax-ts-polar60-bypass-ch-edited.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029243/abg-graphics/original-images/maax/multi-brand/doors/polar-pivot/maax-polar-pivot-33-35-ch-2.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686673630/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-8mm/jpeg/aura8-48-900-340-b3square.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1633110401/abg-graphics/e-commerce/barracuda-pin-connect/duel/duel-sh60-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1675700022/abg-graphics/original-images/maax/multi-brand/doors/duel-alto/jpeg/6036-duel-alto-ch-mw-utile-tosca.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663272840/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-57-59x68-mb-round-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029122/abg-graphics/original-images/maax/multi-brand/doors/polar-shower/jpeg/maax-polar48-bypass-ch-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029126/abg-graphics/original-images/maax/multi-brand/doors/polar-shower/jpeg/maax-polar60-bypass-ch-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1667593855/abg-graphics/original-images/maax/multi-brand/doors/uptown-pivot/jpeg/mixed-finish/uptown-pivot-sh48-mb-wd-u-carrara-olympia-base.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273167/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-27-29x68-mb-round-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663272956/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-square-handle-bn-zoom.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029242/abg-graphics/original-images/maax/multi-brand/doors/polar-pivot/maax-polar-pivot-27-29-ch-1.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273186/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-27-29x68-bn-square-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663272831/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-57-59x68-ch-round-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273249/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-37-39x68-ch-round-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663272804/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-49-51x68-mb-square-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273080/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-43-45x68-bn-round-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686673218/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-8mm/jpeg/aura8-60-900-340-olympia.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273191/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-31-33x68-bn-square-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1726861957/abg-graphics/original-images/maax/multi-brand/doors/pivolok/jpeg/maax-pivolok-27-ch-raindrop-close-pano.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686671954/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/aura6-60-900-340-olympia.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1726861944/abg-graphics/original-images/maax/multi-brand/doors/pivolok/jpeg/maax-pivolok-23-ch-raindrop-close-pano.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273202/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-31-33x68-ch-round-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273033/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-49-51x68-bn-round-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273001/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-43-45x68-mb-square-handle-deco.jpg</t>
-  </si>
-  <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1675700017/abg-graphics/original-images/maax/multi-brand/doors/duel-alto/jpeg/4836-duel-alto-bn-mb-utile-tosca-deco.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/bathtubs/105821/images/maax-105821-001.jpg</t>
   </si>
   <si>
@@ -6094,9 +5959,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/bathtubs/102203/images/maax-102203-001.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_horizontal-flip/v1730912020/abg-graphics/original-images/maax/retail/retail/bathtubs/interflo/maax-interflo-tub-6030-tile-deco.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1623179881/websites-product-info-and-content/maax/products/bathtubs/106667/images/maax-106667-002.jpg</t>
   </si>
   <si>
@@ -6109,9 +5971,6 @@
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/bathtubs/106175/images/maax-106175-001.jpg</t>
   </si>
   <si>
-    <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1675962201/abg-graphics/original-images/maax/retail/retail/bathtubs/corinthiaii/jpeg/maax-corinthia2-6030-deco.jpg</t>
-  </si>
-  <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/websites-product-info-and-content/maax/products/bathtubs/105454/images/maax-105454-001.jpg</t>
   </si>
   <si>
@@ -6152,13 +6011,154 @@
   </si>
   <si>
     <t>https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1623179882/websites-product-info-and-content/maax/products/bathtubs/106883/images/maax-106883-002.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1730912020/abg-graphics/original-images/maax/retail/retail/bathtubs/interflo/maax-interflo-tub-6030-tile-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1675962201/abg-graphics/original-images/maax/retail/retail/bathtubs/corinthiaii/jpeg/maax-corinthia2-6030-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1656088872/abg-graphics/original-images/maax/utile/factory/jpeg/u-factory-vapor-6036-crnr-shk-crop.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1737472895/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/kameleon-60-978-340.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1692029243/abg-graphics/original-images/maax/multi-brand/doors/polar-pivot/maax-polar-pivot-33-35-ch-2.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1686673630/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-8mm/jpeg/aura8-48-900-340-b3square.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1633110401/abg-graphics/e-commerce/barracuda-pin-connect/duel/duel-sh60-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1675700022/abg-graphics/original-images/maax/multi-brand/doors/duel-alto/jpeg/6036-duel-alto-ch-mw-utile-tosca.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1667593848/abg-graphics/original-images/maax/multi-brand/doors/uptown-pivot/jpeg/mixed-finish/uptown-pivot-sh60-db-bm-generic-walls-olympia-base.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663272840/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-57-59x68-mb-round-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1692029122/abg-graphics/original-images/maax/multi-brand/doors/polar-shower/jpeg/maax-polar48-bypass-ch-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1692029126/abg-graphics/original-images/maax/multi-brand/doors/polar-shower/jpeg/maax-polar60-bypass-ch-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1667593855/abg-graphics/original-images/maax/multi-brand/doors/uptown-pivot/jpeg/mixed-finish/uptown-pivot-sh48-mb-wd-u-carrara-olympia-base.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663273167/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-27-29x68-mb-round-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663272956/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-square-handle-bn-zoom.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1692029242/abg-graphics/original-images/maax/multi-brand/doors/polar-pivot/maax-polar-pivot-27-29-ch-1.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663273186/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-27-29x68-bn-square-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663272831/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-57-59x68-ch-round-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663273249/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-37-39x68-ch-round-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663272804/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-49-51x68-mb-square-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663273080/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-43-45x68-bn-round-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/t_square/v1741957958/abg-graphics/original-images/maax/retail/home-depot-exclusives/doors/tonik/maax-tonik-47w-shower-door-rs738-fluted-db.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1686673218/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-8mm/jpeg/aura8-60-900-340-olympia.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663273191/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-31-33x68-bn-square-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/t_square/v1741957591/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/maax-kameleon-47w-shower-door-rs739-fluted-db.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1726861957/abg-graphics/original-images/maax/multi-brand/doors/pivolok/jpeg/maax-pivolok-27-ch-raindrop-close-pano.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1686671954/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/aura6-60-900-340-olympia.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1686675109/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/kameleon-60-900-340.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1726861944/abg-graphics/original-images/maax/multi-brand/doors/pivolok/jpeg/maax-pivolok-23-ch-raindrop-close-pano.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663273202/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-31-33x68-ch-round-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663273033/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-49-51x68-bn-round-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1663273001/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-43-45x68-mb-square-handle-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1675700017/abg-graphics/original-images/maax/multi-brand/doors/duel-alto/jpeg/4836-duel-alto-bn-mb-utile-tosca-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/t_square/v1686671954/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/aura6-60-900-340-olympia.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1660858069/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-48-odyssey-mb-u-tux-zone-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1664220622/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-odyssey-sh-60-ch-zone-base-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/t_square/v1686675107/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/kameleon-ts-900-340.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/t_square/v1741957961/abg-graphics/original-images/maax/retail/home-depot-exclusives/doors/tonik/maax-tonik-ts-59w-rs738-fluted-bn.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1692029216/abg-graphics/original-images/maax/multi-brand/doors/polar-tub/jpeg/maax-ts-polar60-bypass-ch-edited.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/t_square/v1686671352/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/aura6-ts-900-340-essence.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/t_square/v1741792673/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/maax-aura-ts-59w-rs738-fluted-bn.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1692814460/abg-graphics/original-images/maax/multi-brand/doors/manhattan-square/deco/rgb/maax-manhattansquare-mb-round-handle-rokawhite-universal.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1660858077/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-48-odyssey-crnr-ch-u-carrara-zone-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1660858094/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-60-odyssey-crnr-bg-u-carrara-zone-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1681768817/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-60-odyssey-rp-crnr-bn-u-tux-zone-deco.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1695151235/abg-graphics/original-images/maax/showroom/Collection/doors/capella/capella-36rp-bn-crop.jpg</t>
+  </si>
+  <si>
+    <t>https://res.cloudinary.com/american-bath-group/image/upload/v1695151236/abg-graphics/original-images/maax/showroom/Collection/doors/capella/capella-32rp-bn-crop.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6175,6 +6175,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6224,8 +6232,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6238,9 +6247,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6254,10 +6264,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6525,8 +6531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14955,7 +14961,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14989,14 +14995,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>137310</v>
       </c>
       <c r="B2" t="s">
         <v>1425</v>
       </c>
       <c r="C2" t="s">
-        <v>1829</v>
+        <v>1817</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>1078</v>
@@ -15009,14 +15015,14 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>139395</v>
       </c>
       <c r="B3" t="s">
         <v>1426</v>
       </c>
       <c r="C3" t="s">
-        <v>1830</v>
+        <v>1818</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1154</v>
@@ -15029,14 +15035,14 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>136675</v>
       </c>
       <c r="B4" t="s">
         <v>1427</v>
       </c>
       <c r="C4" t="s">
-        <v>1831</v>
+        <v>1819</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1083</v>
@@ -15049,14 +15055,14 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>137311</v>
       </c>
       <c r="B5" t="s">
         <v>1428</v>
       </c>
       <c r="C5" t="s">
-        <v>1832</v>
+        <v>1820</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>1083</v>
@@ -15069,14 +15075,14 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>136560</v>
       </c>
       <c r="B6" t="s">
         <v>1429</v>
       </c>
       <c r="C6" t="s">
-        <v>1833</v>
+        <v>1821</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>1078</v>
@@ -15089,14 +15095,14 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>139393</v>
       </c>
       <c r="B7" t="s">
         <v>1431</v>
       </c>
       <c r="C7" t="s">
-        <v>1834</v>
+        <v>1822</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>1091</v>
@@ -15109,14 +15115,14 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>137422</v>
       </c>
       <c r="B8" t="s">
         <v>1432</v>
       </c>
-      <c r="C8" t="s">
-        <v>1854</v>
+      <c r="C8" s="4" t="s">
+        <v>2030</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>1078</v>
@@ -15129,14 +15135,14 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>136673</v>
       </c>
       <c r="B9" t="s">
         <v>1433</v>
       </c>
       <c r="C9" t="s">
-        <v>1835</v>
+        <v>1823</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>1078</v>
@@ -15149,14 +15155,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>136542</v>
       </c>
       <c r="B10" t="s">
         <v>1434</v>
       </c>
       <c r="C10" t="s">
-        <v>1836</v>
+        <v>1824</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>1078</v>
@@ -15169,14 +15175,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>139590</v>
       </c>
       <c r="B11" t="s">
         <v>1435</v>
       </c>
-      <c r="C11" t="s">
-        <v>1855</v>
+      <c r="C11" s="4" t="s">
+        <v>2031</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1083</v>
@@ -15189,14 +15195,14 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>139581</v>
       </c>
       <c r="B12" t="s">
         <v>1436</v>
       </c>
       <c r="C12" t="s">
-        <v>1837</v>
+        <v>1825</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>1078</v>
@@ -15209,14 +15215,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>137312</v>
       </c>
       <c r="B13" t="s">
         <v>1437</v>
       </c>
       <c r="C13" t="s">
-        <v>1838</v>
+        <v>1826</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>1154</v>
@@ -15229,14 +15235,14 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>136543</v>
       </c>
       <c r="B14" t="s">
         <v>1438</v>
       </c>
       <c r="C14" t="s">
-        <v>1839</v>
+        <v>1827</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>1083</v>
@@ -15249,14 +15255,14 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>135327</v>
       </c>
       <c r="B15" t="s">
         <v>1439</v>
       </c>
       <c r="C15" t="s">
-        <v>1840</v>
+        <v>1828</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>1078</v>
@@ -15269,14 +15275,14 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>139583</v>
       </c>
       <c r="B16" t="s">
         <v>1440</v>
       </c>
       <c r="C16" t="s">
-        <v>1841</v>
+        <v>1829</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>1083</v>
@@ -15289,14 +15295,14 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>139394</v>
       </c>
       <c r="B17" t="s">
         <v>1441</v>
       </c>
       <c r="C17" t="s">
-        <v>1842</v>
+        <v>1830</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>797</v>
@@ -15309,14 +15315,14 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>139954</v>
       </c>
       <c r="B18" t="s">
         <v>1442</v>
       </c>
       <c r="C18" t="s">
-        <v>1843</v>
+        <v>1831</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1083</v>
@@ -15329,14 +15335,14 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>136674</v>
       </c>
       <c r="B19" t="s">
         <v>1443</v>
       </c>
       <c r="C19" t="s">
-        <v>1844</v>
+        <v>1832</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>1154</v>
@@ -15349,14 +15355,14 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>139396</v>
       </c>
       <c r="B20" t="s">
         <v>1444</v>
       </c>
       <c r="C20" t="s">
-        <v>1845</v>
+        <v>1833</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>1083</v>
@@ -15369,14 +15375,14 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>136561</v>
       </c>
       <c r="B21" t="s">
         <v>1445</v>
       </c>
       <c r="C21" t="s">
-        <v>1846</v>
+        <v>1834</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>1083</v>
@@ -15389,14 +15395,14 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>135328</v>
       </c>
       <c r="B22" t="s">
         <v>1446</v>
       </c>
       <c r="C22" t="s">
-        <v>1847</v>
+        <v>1835</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>1083</v>
@@ -15409,14 +15415,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>135865</v>
       </c>
       <c r="B23" t="s">
         <v>1447</v>
       </c>
       <c r="C23" t="s">
-        <v>1848</v>
+        <v>1836</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>1083</v>
@@ -15429,14 +15435,14 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>135240</v>
       </c>
       <c r="B24" t="s">
         <v>1448</v>
       </c>
       <c r="C24" t="s">
-        <v>1849</v>
+        <v>1837</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>1083</v>
@@ -15449,14 +15455,14 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>139588</v>
       </c>
       <c r="B25" t="s">
         <v>1449</v>
       </c>
-      <c r="C25" t="s">
-        <v>1856</v>
+      <c r="C25" s="4" t="s">
+        <v>2032</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1078</v>
@@ -15469,14 +15475,14 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>135239</v>
       </c>
       <c r="B26" t="s">
         <v>1450</v>
       </c>
       <c r="C26" t="s">
-        <v>1850</v>
+        <v>1838</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>1078</v>
@@ -15489,14 +15495,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>139953</v>
       </c>
       <c r="B27" t="s">
         <v>1451</v>
       </c>
       <c r="C27" t="s">
-        <v>1851</v>
+        <v>1839</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>1078</v>
@@ -15509,14 +15515,14 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>138998</v>
       </c>
       <c r="B28" t="s">
         <v>1452</v>
       </c>
       <c r="C28" t="s">
-        <v>1852</v>
+        <v>1840</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>1078</v>
@@ -15529,14 +15535,14 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>139582</v>
       </c>
       <c r="B29" t="s">
         <v>1453</v>
       </c>
       <c r="C29" t="s">
-        <v>1853</v>
+        <v>1841</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>1154</v>
@@ -15550,6 +15556,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F26" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{EC31652B-B976-4550-8B2C-CFC193F778B7}"/>
+    <hyperlink ref="C11" r:id="rId2" xr:uid="{3048A552-11B7-4180-922F-1BFA23D54A72}"/>
+    <hyperlink ref="C25" r:id="rId3" xr:uid="{763B512D-92D4-4C5A-A03B-4C8436DAF88C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -15558,8 +15569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15632,7 +15643,7 @@
         <v>291</v>
       </c>
       <c r="C2" t="s">
-        <v>1888</v>
+        <v>1843</v>
       </c>
       <c r="E2">
         <v>58.375</v>
@@ -15667,7 +15678,7 @@
         <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>1889</v>
+        <v>1844</v>
       </c>
       <c r="E3">
         <v>58.25</v>
@@ -15702,7 +15713,7 @@
         <v>297</v>
       </c>
       <c r="C4" t="s">
-        <v>1890</v>
+        <v>1845</v>
       </c>
       <c r="E4">
         <v>58.375</v>
@@ -15737,7 +15748,7 @@
         <v>299</v>
       </c>
       <c r="C5" t="s">
-        <v>1891</v>
+        <v>1846</v>
       </c>
       <c r="E5">
         <v>58.375</v>
@@ -15772,7 +15783,7 @@
         <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>1892</v>
+        <v>1847</v>
       </c>
       <c r="E6">
         <v>58.375</v>
@@ -15807,7 +15818,7 @@
         <v>303</v>
       </c>
       <c r="C7" t="s">
-        <v>1893</v>
+        <v>1848</v>
       </c>
       <c r="E7">
         <v>58.25</v>
@@ -15842,7 +15853,7 @@
         <v>304</v>
       </c>
       <c r="C8" t="s">
-        <v>1894</v>
+        <v>1849</v>
       </c>
       <c r="E8">
         <v>58.375</v>
@@ -15877,7 +15888,7 @@
         <v>305</v>
       </c>
       <c r="C9" t="s">
-        <v>1895</v>
+        <v>1850</v>
       </c>
       <c r="E9">
         <v>58.125</v>
@@ -15912,7 +15923,7 @@
         <v>307</v>
       </c>
       <c r="C10" t="s">
-        <v>1896</v>
+        <v>1851</v>
       </c>
       <c r="E10">
         <v>58.375</v>
@@ -15947,7 +15958,7 @@
         <v>308</v>
       </c>
       <c r="C11" t="s">
-        <v>1897</v>
+        <v>1852</v>
       </c>
       <c r="E11">
         <v>58.25</v>
@@ -15982,7 +15993,7 @@
         <v>310</v>
       </c>
       <c r="C12" t="s">
-        <v>1898</v>
+        <v>1853</v>
       </c>
       <c r="E12">
         <v>58.375</v>
@@ -16017,7 +16028,7 @@
         <v>311</v>
       </c>
       <c r="C13" t="s">
-        <v>1899</v>
+        <v>1854</v>
       </c>
       <c r="E13">
         <v>64.375</v>
@@ -16052,7 +16063,7 @@
         <v>313</v>
       </c>
       <c r="C14" t="s">
-        <v>1900</v>
+        <v>1855</v>
       </c>
       <c r="E14">
         <v>58.375</v>
@@ -16087,7 +16098,7 @@
         <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>1901</v>
+        <v>1856</v>
       </c>
       <c r="E15">
         <v>64.75</v>
@@ -16122,7 +16133,7 @@
         <v>318</v>
       </c>
       <c r="C16" t="s">
-        <v>1902</v>
+        <v>1857</v>
       </c>
       <c r="E16">
         <v>64.375</v>
@@ -16157,7 +16168,7 @@
         <v>319</v>
       </c>
       <c r="C17" t="s">
-        <v>1903</v>
+        <v>1858</v>
       </c>
       <c r="E17">
         <v>71.375</v>
@@ -16192,7 +16203,7 @@
         <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>1904</v>
+        <v>1859</v>
       </c>
       <c r="E18">
         <v>59.375</v>
@@ -16227,7 +16238,7 @@
         <v>321</v>
       </c>
       <c r="C19" t="s">
-        <v>1905</v>
+        <v>1860</v>
       </c>
       <c r="E19">
         <v>58.25</v>
@@ -16262,7 +16273,7 @@
         <v>323</v>
       </c>
       <c r="C20" t="s">
-        <v>1906</v>
+        <v>1861</v>
       </c>
       <c r="E20">
         <v>58.25</v>
@@ -16297,7 +16308,7 @@
         <v>324</v>
       </c>
       <c r="C21" t="s">
-        <v>1907</v>
+        <v>1862</v>
       </c>
       <c r="E21">
         <v>58.25</v>
@@ -16332,7 +16343,7 @@
         <v>327</v>
       </c>
       <c r="C22" t="s">
-        <v>1908</v>
+        <v>1863</v>
       </c>
       <c r="E22">
         <v>70.125</v>
@@ -16367,7 +16378,7 @@
         <v>328</v>
       </c>
       <c r="C23" t="s">
-        <v>1909</v>
+        <v>1864</v>
       </c>
       <c r="E23">
         <v>58.25</v>
@@ -16402,7 +16413,7 @@
         <v>330</v>
       </c>
       <c r="C24" t="s">
-        <v>1910</v>
+        <v>1865</v>
       </c>
       <c r="E24">
         <v>64.25</v>
@@ -16437,7 +16448,7 @@
         <v>331</v>
       </c>
       <c r="C25" t="s">
-        <v>1911</v>
+        <v>1866</v>
       </c>
       <c r="E25">
         <v>58.375</v>
@@ -16472,7 +16483,7 @@
         <v>333</v>
       </c>
       <c r="C26" t="s">
-        <v>1912</v>
+        <v>1867</v>
       </c>
       <c r="E26">
         <v>70</v>
@@ -16507,7 +16518,7 @@
         <v>335</v>
       </c>
       <c r="C27" t="s">
-        <v>1913</v>
+        <v>1868</v>
       </c>
       <c r="E27">
         <v>58.25</v>
@@ -16542,7 +16553,7 @@
         <v>336</v>
       </c>
       <c r="C28" t="s">
-        <v>1914</v>
+        <v>1869</v>
       </c>
       <c r="E28">
         <v>70.125</v>
@@ -16577,7 +16588,7 @@
         <v>337</v>
       </c>
       <c r="C29" t="s">
-        <v>1915</v>
+        <v>1870</v>
       </c>
       <c r="E29">
         <v>70.375</v>
@@ -16612,7 +16623,7 @@
         <v>339</v>
       </c>
       <c r="C30" t="s">
-        <v>1916</v>
+        <v>1871</v>
       </c>
       <c r="E30">
         <v>58.375</v>
@@ -16647,7 +16658,7 @@
         <v>341</v>
       </c>
       <c r="C31" t="s">
-        <v>1917</v>
+        <v>1872</v>
       </c>
       <c r="E31">
         <v>65.75</v>
@@ -16682,7 +16693,7 @@
         <v>342</v>
       </c>
       <c r="C32" t="s">
-        <v>1918</v>
+        <v>1873</v>
       </c>
       <c r="E32">
         <v>58.375</v>
@@ -16717,7 +16728,7 @@
         <v>343</v>
       </c>
       <c r="C33" t="s">
-        <v>1919</v>
+        <v>1874</v>
       </c>
       <c r="E33">
         <v>70.375</v>
@@ -16752,7 +16763,7 @@
         <v>344</v>
       </c>
       <c r="C34" t="s">
-        <v>1920</v>
+        <v>1875</v>
       </c>
       <c r="E34">
         <v>58.25</v>
@@ -16787,7 +16798,7 @@
         <v>346</v>
       </c>
       <c r="C35" t="s">
-        <v>1921</v>
+        <v>1876</v>
       </c>
       <c r="E35">
         <v>70.375</v>
@@ -16822,7 +16833,7 @@
         <v>330</v>
       </c>
       <c r="C36" t="s">
-        <v>1922</v>
+        <v>1877</v>
       </c>
       <c r="E36">
         <v>64.25</v>
@@ -16857,7 +16868,7 @@
         <v>347</v>
       </c>
       <c r="C37" t="s">
-        <v>1923</v>
+        <v>1878</v>
       </c>
       <c r="E37">
         <v>58.25</v>
@@ -16892,7 +16903,7 @@
         <v>348</v>
       </c>
       <c r="C38" t="s">
-        <v>1924</v>
+        <v>1879</v>
       </c>
       <c r="E38">
         <v>70.375</v>
@@ -16927,7 +16938,7 @@
         <v>333</v>
       </c>
       <c r="C39" t="s">
-        <v>1925</v>
+        <v>1880</v>
       </c>
       <c r="E39">
         <v>70</v>
@@ -16962,7 +16973,7 @@
         <v>349</v>
       </c>
       <c r="C40" t="s">
-        <v>1926</v>
+        <v>1881</v>
       </c>
       <c r="E40">
         <v>58.25</v>
@@ -16997,7 +17008,7 @@
         <v>350</v>
       </c>
       <c r="C41" t="s">
-        <v>1927</v>
+        <v>1882</v>
       </c>
       <c r="E41">
         <v>70.375</v>
@@ -17032,7 +17043,7 @@
         <v>351</v>
       </c>
       <c r="C42" t="s">
-        <v>1928</v>
+        <v>1883</v>
       </c>
       <c r="E42">
         <v>58.25</v>
@@ -17067,7 +17078,7 @@
         <v>352</v>
       </c>
       <c r="C43" t="s">
-        <v>1929</v>
+        <v>1884</v>
       </c>
       <c r="E43">
         <v>65.375</v>
@@ -17102,7 +17113,7 @@
         <v>353</v>
       </c>
       <c r="C44" t="s">
-        <v>1930</v>
+        <v>1885</v>
       </c>
       <c r="E44">
         <v>58.25</v>
@@ -17137,7 +17148,7 @@
         <v>354</v>
       </c>
       <c r="C45" t="s">
-        <v>1931</v>
+        <v>1886</v>
       </c>
       <c r="E45">
         <v>70.375</v>
@@ -17172,7 +17183,7 @@
         <v>355</v>
       </c>
       <c r="C46" t="s">
-        <v>1932</v>
+        <v>1887</v>
       </c>
       <c r="E46">
         <v>58.25</v>
@@ -17207,7 +17218,7 @@
         <v>356</v>
       </c>
       <c r="C47" t="s">
-        <v>1933</v>
+        <v>1888</v>
       </c>
       <c r="E47">
         <v>58.375</v>
@@ -17242,7 +17253,7 @@
         <v>358</v>
       </c>
       <c r="C48" t="s">
-        <v>1934</v>
+        <v>1889</v>
       </c>
       <c r="E48">
         <v>58.25</v>
@@ -17277,7 +17288,7 @@
         <v>359</v>
       </c>
       <c r="C49" t="s">
-        <v>1935</v>
+        <v>1890</v>
       </c>
       <c r="E49">
         <v>70.375</v>
@@ -17312,7 +17323,7 @@
         <v>360</v>
       </c>
       <c r="C50" t="s">
-        <v>1936</v>
+        <v>1891</v>
       </c>
       <c r="E50">
         <v>58.125</v>
@@ -17347,7 +17358,7 @@
         <v>294</v>
       </c>
       <c r="C51" t="s">
-        <v>1937</v>
+        <v>1892</v>
       </c>
       <c r="E51">
         <v>58.375</v>
@@ -17382,7 +17393,7 @@
         <v>362</v>
       </c>
       <c r="C52" t="s">
-        <v>1938</v>
+        <v>1893</v>
       </c>
       <c r="E52">
         <v>70.375</v>
@@ -17417,7 +17428,7 @@
         <v>363</v>
       </c>
       <c r="C53" t="s">
-        <v>1939</v>
+        <v>1894</v>
       </c>
       <c r="E53">
         <v>70.375</v>
@@ -17452,7 +17463,7 @@
         <v>364</v>
       </c>
       <c r="C54" t="s">
-        <v>1940</v>
+        <v>1895</v>
       </c>
       <c r="E54">
         <v>58.375</v>
@@ -17487,7 +17498,7 @@
         <v>365</v>
       </c>
       <c r="C55" t="s">
-        <v>1941</v>
+        <v>1896</v>
       </c>
       <c r="E55">
         <v>58.375</v>
@@ -17522,7 +17533,7 @@
         <v>366</v>
       </c>
       <c r="C56" t="s">
-        <v>1942</v>
+        <v>1897</v>
       </c>
       <c r="E56">
         <v>58.375</v>
@@ -17557,7 +17568,7 @@
         <v>367</v>
       </c>
       <c r="C57" t="s">
-        <v>1943</v>
+        <v>1898</v>
       </c>
       <c r="E57">
         <v>64.375</v>
@@ -17592,7 +17603,7 @@
         <v>368</v>
       </c>
       <c r="C58" t="s">
-        <v>1944</v>
+        <v>1899</v>
       </c>
       <c r="E58">
         <v>70.375</v>
@@ -17627,7 +17638,7 @@
         <v>369</v>
       </c>
       <c r="C59" t="s">
-        <v>1945</v>
+        <v>1900</v>
       </c>
       <c r="E59">
         <v>58.375</v>
@@ -17662,7 +17673,7 @@
         <v>370</v>
       </c>
       <c r="C60" t="s">
-        <v>1946</v>
+        <v>1901</v>
       </c>
       <c r="E60">
         <v>58.25</v>
@@ -17697,7 +17708,7 @@
         <v>372</v>
       </c>
       <c r="C61" t="s">
-        <v>1947</v>
+        <v>1902</v>
       </c>
       <c r="E61">
         <v>70.375</v>
@@ -17732,7 +17743,7 @@
         <v>373</v>
       </c>
       <c r="C62" t="s">
-        <v>1948</v>
+        <v>1903</v>
       </c>
       <c r="E62">
         <v>58.375</v>
@@ -17767,7 +17778,7 @@
         <v>305</v>
       </c>
       <c r="C63" t="s">
-        <v>1949</v>
+        <v>1904</v>
       </c>
       <c r="E63">
         <v>58.125</v>
@@ -17802,7 +17813,7 @@
         <v>374</v>
       </c>
       <c r="C64" t="s">
-        <v>1950</v>
+        <v>1905</v>
       </c>
       <c r="E64">
         <v>64.375</v>
@@ -17837,7 +17848,7 @@
         <v>375</v>
       </c>
       <c r="C65" t="s">
-        <v>1951</v>
+        <v>1906</v>
       </c>
       <c r="E65">
         <v>58.375</v>
@@ -17872,7 +17883,7 @@
         <v>333</v>
       </c>
       <c r="C66" t="s">
-        <v>1952</v>
+        <v>1907</v>
       </c>
       <c r="E66">
         <v>70.5</v>
@@ -17907,7 +17918,7 @@
         <v>376</v>
       </c>
       <c r="C67" t="s">
-        <v>1953</v>
+        <v>1908</v>
       </c>
       <c r="E67">
         <v>70.5</v>
@@ -17942,7 +17953,7 @@
         <v>379</v>
       </c>
       <c r="C68" t="s">
-        <v>1954</v>
+        <v>1909</v>
       </c>
       <c r="E68">
         <v>58.375</v>
@@ -17977,7 +17988,7 @@
         <v>380</v>
       </c>
       <c r="C69" t="s">
-        <v>1955</v>
+        <v>1910</v>
       </c>
       <c r="E69">
         <v>58.25</v>
@@ -18012,7 +18023,7 @@
         <v>381</v>
       </c>
       <c r="C70" t="s">
-        <v>1956</v>
+        <v>1911</v>
       </c>
       <c r="E70">
         <v>58.25</v>
@@ -18047,7 +18058,7 @@
         <v>382</v>
       </c>
       <c r="C71" t="s">
-        <v>1957</v>
+        <v>1912</v>
       </c>
       <c r="E71">
         <v>64.25</v>
@@ -18082,7 +18093,7 @@
         <v>383</v>
       </c>
       <c r="C72" t="s">
-        <v>1958</v>
+        <v>1913</v>
       </c>
       <c r="E72">
         <v>58.25</v>
@@ -18117,7 +18128,7 @@
         <v>384</v>
       </c>
       <c r="C73" t="s">
-        <v>1959</v>
+        <v>1914</v>
       </c>
       <c r="E73">
         <v>64.25</v>
@@ -18152,7 +18163,7 @@
         <v>385</v>
       </c>
       <c r="C74" t="s">
-        <v>1960</v>
+        <v>1915</v>
       </c>
       <c r="E74">
         <v>58.25</v>
@@ -18187,7 +18198,7 @@
         <v>386</v>
       </c>
       <c r="C75" t="s">
-        <v>1961</v>
+        <v>1916</v>
       </c>
       <c r="E75">
         <v>70</v>
@@ -18222,7 +18233,7 @@
         <v>388</v>
       </c>
       <c r="C76" t="s">
-        <v>1962</v>
+        <v>1917</v>
       </c>
       <c r="E76">
         <v>58.5</v>
@@ -18257,7 +18268,7 @@
         <v>386</v>
       </c>
       <c r="C77" t="s">
-        <v>1963</v>
+        <v>1918</v>
       </c>
       <c r="E77">
         <v>70</v>
@@ -18292,7 +18303,7 @@
         <v>389</v>
       </c>
       <c r="C78" t="s">
-        <v>1964</v>
+        <v>1919</v>
       </c>
       <c r="E78">
         <v>59.75</v>
@@ -18327,7 +18338,7 @@
         <v>390</v>
       </c>
       <c r="C79" t="s">
-        <v>1965</v>
+        <v>1920</v>
       </c>
       <c r="E79">
         <v>58.375</v>
@@ -18362,7 +18373,7 @@
         <v>391</v>
       </c>
       <c r="C80" t="s">
-        <v>1966</v>
+        <v>1921</v>
       </c>
       <c r="E80">
         <v>58.25</v>
@@ -18397,7 +18408,7 @@
         <v>330</v>
       </c>
       <c r="C81" t="s">
-        <v>1967</v>
+        <v>1922</v>
       </c>
       <c r="E81">
         <v>64.25</v>
@@ -18432,7 +18443,7 @@
         <v>393</v>
       </c>
       <c r="C82" t="s">
-        <v>1968</v>
+        <v>1923</v>
       </c>
       <c r="E82">
         <v>58.375</v>
@@ -18467,7 +18478,7 @@
         <v>382</v>
       </c>
       <c r="C83" t="s">
-        <v>1969</v>
+        <v>1924</v>
       </c>
       <c r="E83">
         <v>64.25</v>
@@ -18502,7 +18513,7 @@
         <v>394</v>
       </c>
       <c r="C84" t="s">
-        <v>1970</v>
+        <v>1925</v>
       </c>
       <c r="E84">
         <v>58.375</v>
@@ -18537,7 +18548,7 @@
         <v>395</v>
       </c>
       <c r="C85" t="s">
-        <v>1971</v>
+        <v>1926</v>
       </c>
       <c r="E85">
         <v>70.375</v>
@@ -18572,7 +18583,7 @@
         <v>360</v>
       </c>
       <c r="C86" t="s">
-        <v>1972</v>
+        <v>1927</v>
       </c>
       <c r="E86">
         <v>58.125</v>
@@ -18607,7 +18618,7 @@
         <v>396</v>
       </c>
       <c r="C87" t="s">
-        <v>1973</v>
+        <v>1928</v>
       </c>
       <c r="E87">
         <v>58.375</v>
@@ -18642,7 +18653,7 @@
         <v>305</v>
       </c>
       <c r="C88" t="s">
-        <v>1974</v>
+        <v>1929</v>
       </c>
       <c r="E88">
         <v>58.125</v>
@@ -18677,7 +18688,7 @@
         <v>397</v>
       </c>
       <c r="C89" t="s">
-        <v>1975</v>
+        <v>1930</v>
       </c>
       <c r="E89">
         <v>58.25</v>
@@ -18712,7 +18723,7 @@
         <v>398</v>
       </c>
       <c r="C90" t="s">
-        <v>1976</v>
+        <v>1931</v>
       </c>
       <c r="E90">
         <v>70.375</v>
@@ -18747,7 +18758,7 @@
         <v>399</v>
       </c>
       <c r="C91" t="s">
-        <v>1977</v>
+        <v>1932</v>
       </c>
       <c r="E91">
         <v>64.375</v>
@@ -18782,7 +18793,7 @@
         <v>304</v>
       </c>
       <c r="C92" t="s">
-        <v>1978</v>
+        <v>1933</v>
       </c>
       <c r="E92">
         <v>58.25</v>
@@ -18817,7 +18828,7 @@
         <v>386</v>
       </c>
       <c r="C93" t="s">
-        <v>1979</v>
+        <v>1934</v>
       </c>
       <c r="E93">
         <v>70</v>
@@ -18852,7 +18863,7 @@
         <v>401</v>
       </c>
       <c r="C94" t="s">
-        <v>1980</v>
+        <v>1935</v>
       </c>
       <c r="E94">
         <v>58.375</v>
@@ -18887,7 +18898,7 @@
         <v>402</v>
       </c>
       <c r="C95" t="s">
-        <v>1981</v>
+        <v>1936</v>
       </c>
       <c r="E95">
         <v>58.25</v>
@@ -18922,7 +18933,7 @@
         <v>403</v>
       </c>
       <c r="C96" t="s">
-        <v>1982</v>
+        <v>1937</v>
       </c>
       <c r="E96">
         <v>70.375</v>
@@ -18957,7 +18968,7 @@
         <v>404</v>
       </c>
       <c r="C97" t="s">
-        <v>1983</v>
+        <v>1938</v>
       </c>
       <c r="E97">
         <v>58.25</v>
@@ -18992,7 +19003,7 @@
         <v>405</v>
       </c>
       <c r="C98" t="s">
-        <v>1984</v>
+        <v>1939</v>
       </c>
       <c r="E98">
         <v>64.375</v>
@@ -19027,7 +19038,7 @@
         <v>406</v>
       </c>
       <c r="C99" t="s">
-        <v>1985</v>
+        <v>1940</v>
       </c>
       <c r="E99">
         <v>70.5</v>
@@ -19062,7 +19073,7 @@
         <v>407</v>
       </c>
       <c r="C100" t="s">
-        <v>1986</v>
+        <v>1941</v>
       </c>
       <c r="E100">
         <v>58.375</v>
@@ -19097,7 +19108,7 @@
         <v>301</v>
       </c>
       <c r="C101" t="s">
-        <v>1987</v>
+        <v>1942</v>
       </c>
       <c r="E101">
         <v>58.25</v>
@@ -19132,7 +19143,7 @@
         <v>409</v>
       </c>
       <c r="C102" t="s">
-        <v>1988</v>
+        <v>1943</v>
       </c>
       <c r="E102">
         <v>70.375</v>
@@ -19167,7 +19178,7 @@
         <v>360</v>
       </c>
       <c r="C103" t="s">
-        <v>1989</v>
+        <v>1944</v>
       </c>
       <c r="E103">
         <v>58.125</v>
@@ -19202,7 +19213,7 @@
         <v>410</v>
       </c>
       <c r="C104" t="s">
-        <v>1990</v>
+        <v>1945</v>
       </c>
       <c r="E104">
         <v>58.375</v>
@@ -19237,7 +19248,7 @@
         <v>365</v>
       </c>
       <c r="C105" t="s">
-        <v>1991</v>
+        <v>1946</v>
       </c>
       <c r="E105">
         <v>58.25</v>
@@ -19272,7 +19283,7 @@
         <v>411</v>
       </c>
       <c r="C106" t="s">
-        <v>1992</v>
+        <v>1947</v>
       </c>
       <c r="E106">
         <v>58.25</v>
@@ -19307,7 +19318,7 @@
         <v>412</v>
       </c>
       <c r="C107" t="s">
-        <v>1993</v>
+        <v>1948</v>
       </c>
       <c r="E107">
         <v>58.25</v>
@@ -19342,7 +19353,7 @@
         <v>413</v>
       </c>
       <c r="C108" t="s">
-        <v>1994</v>
+        <v>1949</v>
       </c>
       <c r="E108">
         <v>58.375</v>
@@ -19377,7 +19388,7 @@
         <v>414</v>
       </c>
       <c r="C109" t="s">
-        <v>1995</v>
+        <v>1950</v>
       </c>
       <c r="E109">
         <v>58.25</v>
@@ -19412,7 +19423,7 @@
         <v>415</v>
       </c>
       <c r="C110" t="s">
-        <v>1996</v>
+        <v>1951</v>
       </c>
       <c r="E110">
         <v>58.25</v>
@@ -19447,7 +19458,7 @@
         <v>410</v>
       </c>
       <c r="C111" t="s">
-        <v>1997</v>
+        <v>1952</v>
       </c>
       <c r="E111">
         <v>58.25</v>
@@ -19482,7 +19493,7 @@
         <v>416</v>
       </c>
       <c r="C112" t="s">
-        <v>1998</v>
+        <v>1953</v>
       </c>
       <c r="E112">
         <v>57</v>
@@ -19517,7 +19528,7 @@
         <v>418</v>
       </c>
       <c r="C113" t="s">
-        <v>1999</v>
+        <v>1954</v>
       </c>
       <c r="E113">
         <v>58.25</v>
@@ -19552,7 +19563,7 @@
         <v>420</v>
       </c>
       <c r="C114" t="s">
-        <v>2000</v>
+        <v>1955</v>
       </c>
       <c r="E114">
         <v>58.375</v>
@@ -19587,7 +19598,7 @@
         <v>421</v>
       </c>
       <c r="C115" t="s">
-        <v>2001</v>
+        <v>1956</v>
       </c>
       <c r="E115">
         <v>65.375</v>
@@ -19622,7 +19633,7 @@
         <v>364</v>
       </c>
       <c r="C116" t="s">
-        <v>2002</v>
+        <v>1957</v>
       </c>
       <c r="E116">
         <v>58.25</v>
@@ -19657,7 +19668,7 @@
         <v>422</v>
       </c>
       <c r="C117" t="s">
-        <v>2003</v>
+        <v>1958</v>
       </c>
       <c r="E117">
         <v>64.25</v>
@@ -19692,7 +19703,7 @@
         <v>423</v>
       </c>
       <c r="C118" t="s">
-        <v>2004</v>
+        <v>1959</v>
       </c>
       <c r="E118">
         <v>64.375</v>
@@ -19727,7 +19738,7 @@
         <v>424</v>
       </c>
       <c r="C119" t="s">
-        <v>2005</v>
+        <v>1960</v>
       </c>
       <c r="E119">
         <v>57</v>
@@ -19762,7 +19773,7 @@
         <v>425</v>
       </c>
       <c r="C120" t="s">
-        <v>2006</v>
+        <v>1961</v>
       </c>
       <c r="E120">
         <v>70.375</v>
@@ -19797,7 +19808,7 @@
         <v>426</v>
       </c>
       <c r="C121" t="s">
-        <v>2007</v>
+        <v>1962</v>
       </c>
       <c r="E121">
         <v>58.25</v>
@@ -19832,7 +19843,7 @@
         <v>427</v>
       </c>
       <c r="C122" t="s">
-        <v>2008</v>
+        <v>1963</v>
       </c>
       <c r="E122">
         <v>70</v>
@@ -19867,7 +19878,7 @@
         <v>428</v>
       </c>
       <c r="C123" t="s">
-        <v>2009</v>
+        <v>1964</v>
       </c>
       <c r="E123">
         <v>64.75</v>
@@ -19902,7 +19913,7 @@
         <v>429</v>
       </c>
       <c r="C124" t="s">
-        <v>2010</v>
+        <v>1965</v>
       </c>
       <c r="E124">
         <v>58.25</v>
@@ -19937,7 +19948,7 @@
         <v>430</v>
       </c>
       <c r="C125" t="s">
-        <v>2011</v>
+        <v>1966</v>
       </c>
       <c r="E125">
         <v>58.375</v>
@@ -19972,7 +19983,7 @@
         <v>431</v>
       </c>
       <c r="C126" t="s">
-        <v>2012</v>
+        <v>1967</v>
       </c>
       <c r="E126">
         <v>64.375</v>
@@ -20006,8 +20017,8 @@
       <c r="B127" t="s">
         <v>432</v>
       </c>
-      <c r="C127" t="s">
-        <v>2013</v>
+      <c r="C127" s="4" t="s">
+        <v>1986</v>
       </c>
       <c r="E127">
         <v>56.875</v>
@@ -20039,7 +20050,7 @@
         <v>394</v>
       </c>
       <c r="C128" t="s">
-        <v>2014</v>
+        <v>1968</v>
       </c>
       <c r="E128">
         <v>58.25</v>
@@ -20074,7 +20085,7 @@
         <v>434</v>
       </c>
       <c r="C129" t="s">
-        <v>2015</v>
+        <v>1969</v>
       </c>
       <c r="E129">
         <v>58.375</v>
@@ -20109,7 +20120,7 @@
         <v>373</v>
       </c>
       <c r="C130" t="s">
-        <v>2016</v>
+        <v>1970</v>
       </c>
       <c r="E130">
         <v>58.25</v>
@@ -20144,7 +20155,7 @@
         <v>436</v>
       </c>
       <c r="C131" t="s">
-        <v>2017</v>
+        <v>1971</v>
       </c>
       <c r="E131">
         <v>58.375</v>
@@ -20178,8 +20189,8 @@
       <c r="B132" t="s">
         <v>437</v>
       </c>
-      <c r="C132" t="s">
-        <v>2018</v>
+      <c r="C132" s="4" t="s">
+        <v>1987</v>
       </c>
       <c r="E132">
         <v>58.25</v>
@@ -20214,7 +20225,7 @@
         <v>439</v>
       </c>
       <c r="C133" t="s">
-        <v>2019</v>
+        <v>1972</v>
       </c>
       <c r="E133">
         <v>59.25</v>
@@ -20249,7 +20260,7 @@
         <v>440</v>
       </c>
       <c r="C134" t="s">
-        <v>2020</v>
+        <v>1973</v>
       </c>
       <c r="E134">
         <v>58.25</v>
@@ -20284,7 +20295,7 @@
         <v>441</v>
       </c>
       <c r="C135" t="s">
-        <v>2021</v>
+        <v>1974</v>
       </c>
       <c r="E135">
         <v>64.375</v>
@@ -20319,7 +20330,7 @@
         <v>442</v>
       </c>
       <c r="C136" t="s">
-        <v>2022</v>
+        <v>1975</v>
       </c>
       <c r="E136">
         <v>70.375</v>
@@ -20354,7 +20365,7 @@
         <v>443</v>
       </c>
       <c r="C137" t="s">
-        <v>2023</v>
+        <v>1976</v>
       </c>
       <c r="E137">
         <v>58.375</v>
@@ -20389,7 +20400,7 @@
         <v>444</v>
       </c>
       <c r="C138" t="s">
-        <v>2024</v>
+        <v>1977</v>
       </c>
       <c r="E138">
         <v>59.75</v>
@@ -20424,7 +20435,7 @@
         <v>382</v>
       </c>
       <c r="C139" t="s">
-        <v>2025</v>
+        <v>1978</v>
       </c>
       <c r="E139">
         <v>64.25</v>
@@ -20459,7 +20470,7 @@
         <v>445</v>
       </c>
       <c r="C140" t="s">
-        <v>2026</v>
+        <v>1979</v>
       </c>
       <c r="E140">
         <v>64.375</v>
@@ -20494,7 +20505,7 @@
         <v>446</v>
       </c>
       <c r="C141" t="s">
-        <v>2027</v>
+        <v>1980</v>
       </c>
       <c r="E141">
         <v>58.25</v>
@@ -20529,7 +20540,7 @@
         <v>447</v>
       </c>
       <c r="C142" t="s">
-        <v>2028</v>
+        <v>1981</v>
       </c>
       <c r="E142">
         <v>70.75</v>
@@ -20564,7 +20575,7 @@
         <v>448</v>
       </c>
       <c r="C143" t="s">
-        <v>2029</v>
+        <v>1982</v>
       </c>
       <c r="E143">
         <v>64.375</v>
@@ -20599,7 +20610,7 @@
         <v>449</v>
       </c>
       <c r="C144" t="s">
-        <v>2030</v>
+        <v>1983</v>
       </c>
       <c r="E144">
         <v>58.25</v>
@@ -20634,7 +20645,7 @@
         <v>450</v>
       </c>
       <c r="C145" t="s">
-        <v>2031</v>
+        <v>1984</v>
       </c>
       <c r="E145">
         <v>70.375</v>
@@ -20669,7 +20680,7 @@
         <v>451</v>
       </c>
       <c r="C146" t="s">
-        <v>2032</v>
+        <v>1985</v>
       </c>
       <c r="E146">
         <v>58.25</v>
@@ -20698,6 +20709,10 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:N146" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="C127" r:id="rId1" xr:uid="{7E359883-426B-4C08-88DC-3BF4B332D1AB}"/>
+    <hyperlink ref="C132" r:id="rId2" xr:uid="{FCEFD422-AFAF-41C1-8F54-D5574FA9070F}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -25588,14 +25603,14 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="160.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="179.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.44140625" bestFit="1" customWidth="1"/>
@@ -25647,7 +25662,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>107455</v>
       </c>
       <c r="B2" t="s">
@@ -25685,7 +25700,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>107464</v>
       </c>
       <c r="B3" t="s">
@@ -25723,7 +25738,7 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>107458</v>
       </c>
       <c r="B4" t="s">
@@ -25761,7 +25776,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>107456</v>
       </c>
       <c r="B5" t="s">
@@ -25799,7 +25814,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>107182</v>
       </c>
       <c r="B6" t="s">
@@ -25837,7 +25852,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>107457</v>
       </c>
       <c r="B7" t="s">
@@ -25875,7 +25890,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>107466</v>
       </c>
       <c r="B8" t="s">
@@ -25913,7 +25928,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>141427</v>
       </c>
       <c r="B9" t="s">
@@ -25951,7 +25966,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>141425</v>
       </c>
       <c r="B10" t="s">
@@ -25989,7 +26004,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>107460</v>
       </c>
       <c r="B11" t="s">
@@ -26027,7 +26042,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>107479</v>
       </c>
       <c r="B12" t="s">
@@ -26065,7 +26080,7 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>107352</v>
       </c>
       <c r="B13" t="s">
@@ -26103,7 +26118,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>107461</v>
       </c>
       <c r="B14" t="s">
@@ -26141,7 +26156,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>107462</v>
       </c>
       <c r="B15" t="s">
@@ -26179,7 +26194,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>107228</v>
       </c>
       <c r="B16" t="s">
@@ -26217,14 +26232,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>107465</v>
       </c>
       <c r="B17" t="s">
         <v>1084</v>
       </c>
-      <c r="C17" t="s">
-        <v>1667</v>
+      <c r="C17" s="4" t="s">
+        <v>1988</v>
       </c>
       <c r="D17" t="s">
         <v>39</v>
@@ -26255,7 +26270,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>107180</v>
       </c>
       <c r="B18" t="s">
@@ -26293,7 +26308,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>107459</v>
       </c>
       <c r="B19" t="s">
@@ -26331,7 +26346,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>103408</v>
       </c>
       <c r="B20" t="s">
@@ -26369,7 +26384,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>103418</v>
       </c>
       <c r="B21" t="s">
@@ -26407,7 +26422,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>107227</v>
       </c>
       <c r="B22" t="s">
@@ -26445,7 +26460,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>107181</v>
       </c>
       <c r="B23" t="s">
@@ -26483,7 +26498,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>107224</v>
       </c>
       <c r="B24" t="s">
@@ -26521,7 +26536,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>103424</v>
       </c>
       <c r="B25" t="s">
@@ -26559,7 +26574,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>107183</v>
       </c>
       <c r="B26" t="s">
@@ -26597,7 +26612,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>107144</v>
       </c>
       <c r="B27" t="s">
@@ -26635,7 +26650,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>107140</v>
       </c>
       <c r="B28" t="s">
@@ -26673,7 +26688,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>103388</v>
       </c>
       <c r="B29" t="s">
@@ -26711,7 +26726,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>107463</v>
       </c>
       <c r="B30" t="s">
@@ -26749,7 +26764,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>107223</v>
       </c>
       <c r="B31" t="s">
@@ -26787,7 +26802,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>106542</v>
       </c>
       <c r="B32" t="s">
@@ -26825,7 +26840,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>103378</v>
       </c>
       <c r="B33" t="s">
@@ -26863,7 +26878,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>103414</v>
       </c>
       <c r="B34" t="s">
@@ -26902,6 +26917,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L34" xr:uid="{00000000-0009-0000-0000-000004000000}"/>
+  <hyperlinks>
+    <hyperlink ref="C17" r:id="rId1" xr:uid="{8BE85DCA-83E9-4797-8D4C-27CA93E39493}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -26961,11 +26979,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr codeName="Sheet6"/>
+  <sheetPr codeName="Sheet6" filterMode="1"/>
   <dimension ref="A1:O158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27033,15 +27051,15 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>136335</v>
       </c>
       <c r="B2" t="s">
         <v>1120</v>
       </c>
       <c r="C2" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="E2" t="s">
         <v>743</v>
@@ -27074,15 +27092,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>136679</v>
       </c>
       <c r="B3" t="s">
         <v>1125</v>
       </c>
       <c r="C3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="E3" t="s">
         <v>1126</v>
@@ -27115,15 +27133,15 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>136271</v>
       </c>
       <c r="B4" t="s">
         <v>1132</v>
       </c>
       <c r="C4" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="E4" t="s">
         <v>642</v>
@@ -27156,15 +27174,15 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>135662</v>
       </c>
       <c r="B5" t="s">
         <v>1136</v>
       </c>
       <c r="C5" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="E5" t="s">
         <v>540</v>
@@ -27197,15 +27215,15 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>139584</v>
       </c>
       <c r="B6" t="s">
         <v>1139</v>
       </c>
       <c r="C6" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="E6" t="s">
         <v>536</v>
@@ -27238,15 +27256,15 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>105318</v>
       </c>
       <c r="B7" t="s">
         <v>1144</v>
       </c>
       <c r="C7" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="E7" t="s">
         <v>694</v>
@@ -27279,15 +27297,15 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>139681</v>
       </c>
       <c r="B8" t="s">
         <v>1149</v>
       </c>
       <c r="C8" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="E8" t="s">
         <v>510</v>
@@ -27320,15 +27338,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>138762</v>
       </c>
       <c r="B9" t="s">
         <v>1152</v>
       </c>
       <c r="C9" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="E9" t="s">
         <v>743</v>
@@ -27362,14 +27380,14 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>134565</v>
       </c>
       <c r="B10" t="s">
         <v>1155</v>
       </c>
       <c r="C10" t="s">
-        <v>1676</v>
+        <v>1989</v>
       </c>
       <c r="E10" t="s">
         <v>1020</v>
@@ -27402,15 +27420,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>139349</v>
       </c>
       <c r="B11" t="s">
         <v>1462</v>
       </c>
       <c r="C11" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="E11" t="s">
         <v>642</v>
@@ -27443,15 +27461,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>137935</v>
       </c>
       <c r="B12" t="s">
         <v>1159</v>
       </c>
       <c r="C12" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="E12" t="s">
         <v>1154</v>
@@ -27485,14 +27503,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>136733</v>
       </c>
       <c r="B13" t="s">
         <v>1162</v>
       </c>
       <c r="C13" t="s">
-        <v>1863</v>
+        <v>1990</v>
       </c>
       <c r="E13" t="s">
         <v>645</v>
@@ -27525,15 +27543,15 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>135690</v>
       </c>
       <c r="B14" t="s">
         <v>1166</v>
       </c>
       <c r="C14" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="E14" t="s">
         <v>642</v>
@@ -27567,14 +27585,14 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>135674</v>
       </c>
       <c r="B15" t="s">
         <v>1169</v>
       </c>
       <c r="C15" t="s">
-        <v>1864</v>
+        <v>1991</v>
       </c>
       <c r="E15" t="s">
         <v>510</v>
@@ -27608,14 +27626,14 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>136272</v>
       </c>
       <c r="B16" t="s">
         <v>1171</v>
       </c>
       <c r="C16" t="s">
-        <v>1865</v>
+        <v>1992</v>
       </c>
       <c r="E16" t="s">
         <v>743</v>
@@ -27648,15 +27666,15 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>136656</v>
       </c>
       <c r="B17" t="s">
         <v>1172</v>
       </c>
       <c r="C17" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="E17" t="s">
         <v>645</v>
@@ -27690,14 +27708,14 @@
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>136955</v>
       </c>
       <c r="B18" t="s">
         <v>1175</v>
       </c>
       <c r="C18" t="s">
-        <v>1866</v>
+        <v>1993</v>
       </c>
       <c r="E18" t="s">
         <v>743</v>
@@ -27730,15 +27748,15 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>135241</v>
       </c>
       <c r="B19" t="s">
         <v>1178</v>
       </c>
       <c r="C19" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="E19" t="s">
         <v>1179</v>
@@ -27771,15 +27789,15 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>134665</v>
       </c>
       <c r="B20" t="s">
         <v>1184</v>
       </c>
       <c r="C20" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="E20" t="s">
         <v>1020</v>
@@ -27812,15 +27830,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>136671</v>
       </c>
       <c r="B21" t="s">
         <v>1186</v>
       </c>
       <c r="C21" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="E21" t="s">
         <v>642</v>
@@ -27853,15 +27871,15 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>137835</v>
       </c>
       <c r="B22" t="s">
         <v>1188</v>
       </c>
       <c r="C22" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="E22" t="s">
         <v>1189</v>
@@ -27894,15 +27912,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>138541</v>
       </c>
       <c r="B23" t="s">
         <v>1192</v>
       </c>
       <c r="C23" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="E23" t="s">
         <v>486</v>
@@ -27936,14 +27954,14 @@
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>135326</v>
       </c>
       <c r="B24" t="s">
         <v>1195</v>
       </c>
       <c r="C24" t="s">
-        <v>1686</v>
+        <v>1994</v>
       </c>
       <c r="E24" t="s">
         <v>843</v>
@@ -27976,15 +27994,15 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>138954</v>
       </c>
       <c r="B25" t="s">
         <v>1198</v>
       </c>
       <c r="C25" t="s">
-        <v>1687</v>
+        <v>1684</v>
       </c>
       <c r="E25" t="s">
         <v>474</v>
@@ -28017,15 +28035,15 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>139586</v>
       </c>
       <c r="B26" t="s">
         <v>1200</v>
       </c>
       <c r="C26" t="s">
-        <v>1688</v>
+        <v>1685</v>
       </c>
       <c r="E26" t="s">
         <v>642</v>
@@ -28058,15 +28076,15 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>139578</v>
       </c>
       <c r="B27" t="s">
         <v>1201</v>
       </c>
       <c r="C27" t="s">
-        <v>1689</v>
+        <v>1686</v>
       </c>
       <c r="E27" t="s">
         <v>642</v>
@@ -28099,15 +28117,15 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+    <row r="28" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>139352</v>
       </c>
       <c r="B28" t="s">
         <v>1463</v>
       </c>
       <c r="C28" t="s">
-        <v>1690</v>
+        <v>1687</v>
       </c>
       <c r="E28" t="s">
         <v>642</v>
@@ -28140,15 +28158,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+    <row r="29" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>138521</v>
       </c>
       <c r="B29" t="s">
         <v>1464</v>
       </c>
       <c r="C29" t="s">
-        <v>1691</v>
+        <v>1688</v>
       </c>
       <c r="E29" t="s">
         <v>1187</v>
@@ -28181,15 +28199,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+    <row r="30" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>136694</v>
       </c>
       <c r="B30" t="s">
         <v>1205</v>
       </c>
       <c r="C30" t="s">
-        <v>1692</v>
+        <v>1689</v>
       </c>
       <c r="E30" t="s">
         <v>743</v>
@@ -28223,14 +28241,14 @@
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>138275</v>
       </c>
       <c r="B31" t="s">
         <v>1207</v>
       </c>
       <c r="C31" t="s">
-        <v>1867</v>
+        <v>1995</v>
       </c>
       <c r="E31" t="s">
         <v>1208</v>
@@ -28263,15 +28281,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+    <row r="32" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>136883</v>
       </c>
       <c r="B32" t="s">
         <v>1211</v>
       </c>
       <c r="C32" t="s">
-        <v>1693</v>
+        <v>1690</v>
       </c>
       <c r="E32" t="s">
         <v>574</v>
@@ -28305,14 +28323,14 @@
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>105413</v>
       </c>
       <c r="B33" t="s">
         <v>1212</v>
       </c>
       <c r="C33" t="s">
-        <v>1868</v>
+        <v>1996</v>
       </c>
       <c r="E33" t="s">
         <v>797</v>
@@ -28346,14 +28364,14 @@
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>105412</v>
       </c>
       <c r="B34" t="s">
         <v>1214</v>
       </c>
       <c r="C34" t="s">
-        <v>1869</v>
+        <v>1997</v>
       </c>
       <c r="E34" t="s">
         <v>518</v>
@@ -28387,14 +28405,14 @@
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>135325</v>
       </c>
       <c r="B35" t="s">
         <v>1216</v>
       </c>
       <c r="C35" t="s">
-        <v>1870</v>
+        <v>1998</v>
       </c>
       <c r="E35" t="s">
         <v>1180</v>
@@ -28428,14 +28446,14 @@
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>138260</v>
       </c>
       <c r="B36" t="s">
         <v>1217</v>
       </c>
       <c r="C36" t="s">
-        <v>1871</v>
+        <v>1999</v>
       </c>
       <c r="E36" t="s">
         <v>1218</v>
@@ -28468,15 +28486,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A37" s="4">
+    <row r="37" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>135672</v>
       </c>
       <c r="B37" t="s">
         <v>1220</v>
       </c>
       <c r="C37" t="s">
-        <v>1694</v>
+        <v>1691</v>
       </c>
       <c r="E37" t="s">
         <v>1020</v>
@@ -28509,15 +28527,15 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+    <row r="38" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>139675</v>
       </c>
       <c r="B38" t="s">
         <v>1221</v>
       </c>
       <c r="C38" t="s">
-        <v>1695</v>
+        <v>1692</v>
       </c>
       <c r="E38" t="s">
         <v>1020</v>
@@ -28551,14 +28569,14 @@
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
+      <c r="A39">
         <v>138268</v>
       </c>
       <c r="B39" t="s">
         <v>1223</v>
       </c>
       <c r="C39" t="s">
-        <v>1872</v>
+        <v>2000</v>
       </c>
       <c r="E39" t="s">
         <v>1224</v>
@@ -28591,15 +28609,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+    <row r="40" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>135324</v>
       </c>
       <c r="B40" t="s">
         <v>1225</v>
       </c>
       <c r="C40" t="s">
-        <v>1696</v>
+        <v>1693</v>
       </c>
       <c r="E40" t="s">
         <v>743</v>
@@ -28633,14 +28651,14 @@
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
+      <c r="A41">
         <v>136732</v>
       </c>
       <c r="B41" t="s">
         <v>1226</v>
       </c>
       <c r="C41" t="s">
-        <v>1873</v>
+        <v>2001</v>
       </c>
       <c r="E41" t="s">
         <v>714</v>
@@ -28674,14 +28692,14 @@
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42">
         <v>138261</v>
       </c>
       <c r="B42" t="s">
         <v>1228</v>
       </c>
       <c r="C42" t="s">
-        <v>1874</v>
+        <v>2002</v>
       </c>
       <c r="E42" t="s">
         <v>1219</v>
@@ -28715,14 +28733,14 @@
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A43" s="4">
+      <c r="A43">
         <v>138262</v>
       </c>
       <c r="B43" t="s">
         <v>1230</v>
       </c>
       <c r="C43" t="s">
-        <v>1874</v>
+        <v>2002</v>
       </c>
       <c r="E43" t="s">
         <v>1229</v>
@@ -28756,14 +28774,14 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A44" s="4">
+      <c r="A44">
         <v>138277</v>
       </c>
       <c r="B44" t="s">
         <v>1231</v>
       </c>
       <c r="C44" t="s">
-        <v>1875</v>
+        <v>2003</v>
       </c>
       <c r="E44" t="s">
         <v>843</v>
@@ -28796,15 +28814,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A45" s="4">
+    <row r="45" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>105418</v>
       </c>
       <c r="B45" t="s">
         <v>1232</v>
       </c>
       <c r="C45" t="s">
-        <v>1697</v>
+        <v>1694</v>
       </c>
       <c r="E45" t="s">
         <v>694</v>
@@ -28837,15 +28855,15 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
+    <row r="46" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>135242</v>
       </c>
       <c r="B46" t="s">
         <v>1234</v>
       </c>
       <c r="C46" t="s">
-        <v>1698</v>
+        <v>1695</v>
       </c>
       <c r="E46" t="s">
         <v>1180</v>
@@ -28878,15 +28896,15 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
+    <row r="47" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>136693</v>
       </c>
       <c r="B47" t="s">
         <v>1235</v>
       </c>
       <c r="C47" t="s">
-        <v>1699</v>
+        <v>1696</v>
       </c>
       <c r="E47" t="s">
         <v>642</v>
@@ -28920,14 +28938,14 @@
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
+      <c r="A48">
         <v>137421</v>
       </c>
       <c r="B48" t="s">
         <v>1237</v>
       </c>
-      <c r="C48" t="s">
-        <v>1700</v>
+      <c r="C48" s="4" t="s">
+        <v>2020</v>
       </c>
       <c r="E48" t="s">
         <v>1180</v>
@@ -28961,14 +28979,14 @@
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
+      <c r="A49">
         <v>138267</v>
       </c>
       <c r="B49" t="s">
         <v>1240</v>
       </c>
       <c r="C49" t="s">
-        <v>1876</v>
+        <v>2004</v>
       </c>
       <c r="E49" t="s">
         <v>1241</v>
@@ -29001,15 +29019,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A50" s="4">
+    <row r="50" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>136655</v>
       </c>
       <c r="B50" t="s">
         <v>1242</v>
       </c>
       <c r="C50" t="s">
-        <v>1701</v>
+        <v>1697</v>
       </c>
       <c r="E50" t="s">
         <v>1243</v>
@@ -29043,14 +29061,14 @@
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A51" s="4">
+      <c r="A51">
         <v>138274</v>
       </c>
       <c r="B51" t="s">
         <v>1244</v>
       </c>
       <c r="C51" t="s">
-        <v>1877</v>
+        <v>2005</v>
       </c>
       <c r="E51" t="s">
         <v>1187</v>
@@ -29083,15 +29101,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A52" s="4">
+    <row r="52" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52">
         <v>138992</v>
       </c>
       <c r="B52" t="s">
         <v>1245</v>
       </c>
       <c r="C52" t="s">
-        <v>1702</v>
+        <v>1698</v>
       </c>
       <c r="E52" t="s">
         <v>474</v>
@@ -29124,15 +29142,15 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A53" s="4">
+    <row r="53" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53">
         <v>135334</v>
       </c>
       <c r="B53" t="s">
         <v>1465</v>
       </c>
       <c r="C53" t="s">
-        <v>1703</v>
+        <v>1699</v>
       </c>
       <c r="E53" t="s">
         <v>642</v>
@@ -29166,14 +29184,14 @@
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A54" s="4">
+      <c r="A54">
         <v>138270</v>
       </c>
       <c r="B54" t="s">
         <v>1249</v>
       </c>
       <c r="C54" t="s">
-        <v>1878</v>
+        <v>2006</v>
       </c>
       <c r="E54" t="s">
         <v>510</v>
@@ -29206,15 +29224,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A55" s="4">
+    <row r="55" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55">
         <v>137864</v>
       </c>
       <c r="B55" t="s">
         <v>1250</v>
       </c>
       <c r="C55" t="s">
-        <v>1704</v>
+        <v>1700</v>
       </c>
       <c r="E55" t="s">
         <v>1077</v>
@@ -29247,15 +29265,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+    <row r="56" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56">
         <v>135323</v>
       </c>
       <c r="B56" t="s">
         <v>1251</v>
       </c>
       <c r="C56" t="s">
-        <v>1705</v>
+        <v>1701</v>
       </c>
       <c r="E56" t="s">
         <v>642</v>
@@ -29288,15 +29306,15 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A57" s="4">
+    <row r="57" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57">
         <v>105417</v>
       </c>
       <c r="B57" t="s">
         <v>1252</v>
       </c>
       <c r="C57" t="s">
-        <v>1706</v>
+        <v>1702</v>
       </c>
       <c r="E57" t="s">
         <v>1253</v>
@@ -29329,15 +29347,15 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A58" s="4">
+    <row r="58" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58">
         <v>135691</v>
       </c>
       <c r="B58" t="s">
         <v>1254</v>
       </c>
       <c r="C58" t="s">
-        <v>1707</v>
+        <v>1703</v>
       </c>
       <c r="E58" t="s">
         <v>743</v>
@@ -29370,15 +29388,15 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A59" s="4">
+    <row r="59" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>135875</v>
       </c>
       <c r="B59" t="s">
         <v>1255</v>
       </c>
       <c r="C59" t="s">
-        <v>1708</v>
+        <v>1704</v>
       </c>
       <c r="E59" t="s">
         <v>486</v>
@@ -29412,14 +29430,14 @@
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A60" s="4">
+      <c r="A60">
         <v>139663</v>
       </c>
       <c r="B60" t="s">
         <v>1258</v>
       </c>
-      <c r="C60" t="s">
-        <v>1709</v>
+      <c r="C60" s="4" t="s">
+        <v>2007</v>
       </c>
       <c r="G60" t="s">
         <v>460</v>
@@ -29446,15 +29464,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A61" s="4">
+    <row r="61" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61">
         <v>137873</v>
       </c>
       <c r="B61" t="s">
         <v>1261</v>
       </c>
       <c r="C61" t="s">
-        <v>1710</v>
+        <v>1705</v>
       </c>
       <c r="E61" t="s">
         <v>886</v>
@@ -29487,15 +29505,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A62" s="4">
+    <row r="62" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>135870</v>
       </c>
       <c r="B62" t="s">
         <v>1262</v>
       </c>
       <c r="C62" t="s">
-        <v>1711</v>
+        <v>1706</v>
       </c>
       <c r="E62" t="s">
         <v>474</v>
@@ -29529,14 +29547,14 @@
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A63" s="4">
+      <c r="A63">
         <v>136731</v>
       </c>
       <c r="B63" t="s">
         <v>1263</v>
       </c>
       <c r="C63" t="s">
-        <v>1863</v>
+        <v>1990</v>
       </c>
       <c r="E63" t="s">
         <v>1243</v>
@@ -29569,15 +29587,15 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A64" s="4">
+    <row r="64" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64">
         <v>134664</v>
       </c>
       <c r="B64" t="s">
         <v>1265</v>
       </c>
       <c r="C64" t="s">
-        <v>1712</v>
+        <v>1707</v>
       </c>
       <c r="E64" t="s">
         <v>1187</v>
@@ -29611,14 +29629,14 @@
       </c>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="4">
+      <c r="A65">
         <v>135675</v>
       </c>
       <c r="B65" t="s">
         <v>1266</v>
       </c>
       <c r="C65" t="s">
-        <v>1879</v>
+        <v>2008</v>
       </c>
       <c r="E65" t="s">
         <v>1020</v>
@@ -29652,14 +29670,14 @@
       </c>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="4">
+      <c r="A66">
         <v>138263</v>
       </c>
       <c r="B66" t="s">
         <v>1267</v>
       </c>
       <c r="C66" t="s">
-        <v>1880</v>
+        <v>2009</v>
       </c>
       <c r="E66" t="s">
         <v>714</v>
@@ -29692,15 +29710,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="4">
+    <row r="67" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A67">
         <v>135322</v>
       </c>
       <c r="B67" t="s">
         <v>1225</v>
       </c>
       <c r="C67" t="s">
-        <v>1713</v>
+        <v>1708</v>
       </c>
       <c r="E67" t="s">
         <v>743</v>
@@ -29733,15 +29751,15 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A68" s="4">
+    <row r="68" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>138950</v>
       </c>
       <c r="B68" t="s">
         <v>1268</v>
       </c>
       <c r="C68" t="s">
-        <v>1714</v>
+        <v>1709</v>
       </c>
       <c r="E68" t="s">
         <v>474</v>
@@ -29774,15 +29792,15 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+    <row r="69" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>138996</v>
       </c>
       <c r="B69" t="s">
         <v>1269</v>
       </c>
       <c r="C69" t="s">
-        <v>1715</v>
+        <v>1710</v>
       </c>
       <c r="E69" t="s">
         <v>474</v>
@@ -29816,14 +29834,14 @@
       </c>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+      <c r="A70">
         <v>134563</v>
       </c>
       <c r="B70" t="s">
         <v>1272</v>
       </c>
       <c r="C70" t="s">
-        <v>1716</v>
+        <v>2010</v>
       </c>
       <c r="E70" t="s">
         <v>510</v>
@@ -29856,15 +29874,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+    <row r="71" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>138997</v>
       </c>
       <c r="B71" t="s">
         <v>1273</v>
       </c>
       <c r="C71" t="s">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="E71" t="s">
         <v>486</v>
@@ -29897,15 +29915,15 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+    <row r="72" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>135321</v>
       </c>
       <c r="B72" t="s">
         <v>1251</v>
       </c>
       <c r="C72" t="s">
-        <v>1718</v>
+        <v>1712</v>
       </c>
       <c r="E72" t="s">
         <v>642</v>
@@ -29938,15 +29956,15 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+    <row r="73" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>135335</v>
       </c>
       <c r="B73" t="s">
         <v>1466</v>
       </c>
       <c r="C73" t="s">
-        <v>1719</v>
+        <v>1713</v>
       </c>
       <c r="E73" t="s">
         <v>743</v>
@@ -29979,15 +29997,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+    <row r="74" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>137833</v>
       </c>
       <c r="B74" t="s">
         <v>1274</v>
       </c>
       <c r="C74" t="s">
-        <v>1720</v>
+        <v>1714</v>
       </c>
       <c r="E74" t="s">
         <v>1275</v>
@@ -30021,14 +30039,14 @@
       </c>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
+      <c r="A75">
         <v>136635</v>
       </c>
       <c r="B75" t="s">
         <v>1276</v>
       </c>
       <c r="C75" t="s">
-        <v>1881</v>
+        <v>2011</v>
       </c>
       <c r="E75" t="s">
         <v>1229</v>
@@ -30061,15 +30079,15 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
+    <row r="76" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>105317</v>
       </c>
       <c r="B76" t="s">
         <v>1277</v>
       </c>
       <c r="C76" t="s">
-        <v>1721</v>
+        <v>1715</v>
       </c>
       <c r="E76" t="s">
         <v>1253</v>
@@ -30103,14 +30121,14 @@
       </c>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
+      <c r="A77">
         <v>138271</v>
       </c>
       <c r="B77" t="s">
         <v>1278</v>
       </c>
       <c r="C77" t="s">
-        <v>1878</v>
+        <v>2006</v>
       </c>
       <c r="E77" t="s">
         <v>1180</v>
@@ -30143,15 +30161,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
+    <row r="78" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>138761</v>
       </c>
       <c r="B78" t="s">
         <v>1279</v>
       </c>
       <c r="C78" t="s">
-        <v>1722</v>
+        <v>1716</v>
       </c>
       <c r="E78" t="s">
         <v>510</v>
@@ -30184,15 +30202,15 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
+    <row r="79" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>138520</v>
       </c>
       <c r="B79" t="s">
         <v>1467</v>
       </c>
       <c r="C79" t="s">
-        <v>1723</v>
+        <v>1717</v>
       </c>
       <c r="E79" t="s">
         <v>1224</v>
@@ -30225,15 +30243,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
+    <row r="80" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>135665</v>
       </c>
       <c r="B80" t="s">
         <v>1280</v>
       </c>
       <c r="C80" t="s">
-        <v>1724</v>
+        <v>1718</v>
       </c>
       <c r="E80" t="s">
         <v>1020</v>
@@ -30266,15 +30284,15 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
+    <row r="81" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>105420</v>
       </c>
       <c r="B81" t="s">
         <v>1281</v>
       </c>
       <c r="C81" t="s">
-        <v>1725</v>
+        <v>1719</v>
       </c>
       <c r="E81" t="s">
         <v>1282</v>
@@ -30308,14 +30326,14 @@
       </c>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
+      <c r="A82">
         <v>138265</v>
       </c>
       <c r="B82" t="s">
         <v>1284</v>
       </c>
       <c r="C82" t="s">
-        <v>1880</v>
+        <v>2009</v>
       </c>
       <c r="E82" t="s">
         <v>645</v>
@@ -30348,15 +30366,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
+    <row r="83" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>138952</v>
       </c>
       <c r="B83" t="s">
         <v>1286</v>
       </c>
       <c r="C83" t="s">
-        <v>1726</v>
+        <v>1720</v>
       </c>
       <c r="E83" t="s">
         <v>486</v>
@@ -30390,14 +30408,14 @@
       </c>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
+      <c r="A84">
         <v>139665</v>
       </c>
       <c r="B84" t="s">
         <v>1287</v>
       </c>
       <c r="C84" t="s">
-        <v>1882</v>
+        <v>2012</v>
       </c>
       <c r="E84" t="s">
         <v>1020</v>
@@ -30430,15 +30448,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
+    <row r="85" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>138460</v>
       </c>
       <c r="B85" t="s">
         <v>1288</v>
       </c>
       <c r="C85" t="s">
-        <v>1727</v>
+        <v>1721</v>
       </c>
       <c r="E85" t="s">
         <v>474</v>
@@ -30472,14 +30490,14 @@
       </c>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
+      <c r="A86">
         <v>137669</v>
       </c>
       <c r="B86" t="s">
         <v>1291</v>
       </c>
       <c r="C86" t="s">
-        <v>1882</v>
+        <v>2012</v>
       </c>
       <c r="E86" t="s">
         <v>1020</v>
@@ -30512,15 +30530,15 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+    <row r="87" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>139579</v>
       </c>
       <c r="B87" t="s">
         <v>1292</v>
       </c>
       <c r="C87" t="s">
-        <v>1728</v>
+        <v>1722</v>
       </c>
       <c r="E87" t="s">
         <v>574</v>
@@ -30554,14 +30572,14 @@
       </c>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
+      <c r="A88">
         <v>137420</v>
       </c>
       <c r="B88" t="s">
         <v>1293</v>
       </c>
-      <c r="C88" t="s">
-        <v>1729</v>
+      <c r="C88" s="4" t="s">
+        <v>2021</v>
       </c>
       <c r="E88" t="s">
         <v>843</v>
@@ -30594,15 +30612,15 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+    <row r="89" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>135238</v>
       </c>
       <c r="B89" t="s">
         <v>1294</v>
       </c>
       <c r="C89" t="s">
-        <v>1730</v>
+        <v>1723</v>
       </c>
       <c r="E89" t="s">
         <v>843</v>
@@ -30635,15 +30653,15 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A90" s="4">
+    <row r="90" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90">
         <v>139580</v>
       </c>
       <c r="B90" t="s">
         <v>1297</v>
       </c>
       <c r="C90" t="s">
-        <v>1731</v>
+        <v>1724</v>
       </c>
       <c r="E90" t="s">
         <v>743</v>
@@ -30676,15 +30694,15 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A91" s="4">
+    <row r="91" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A91">
         <v>135243</v>
       </c>
       <c r="B91" t="s">
         <v>1298</v>
       </c>
       <c r="C91" t="s">
-        <v>1732</v>
+        <v>1725</v>
       </c>
       <c r="E91" t="s">
         <v>889</v>
@@ -30717,15 +30735,15 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A92" s="4">
+    <row r="92" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92">
         <v>135244</v>
       </c>
       <c r="B92" t="s">
         <v>1299</v>
       </c>
       <c r="C92" t="s">
-        <v>1733</v>
+        <v>1726</v>
       </c>
       <c r="E92" t="s">
         <v>843</v>
@@ -30758,15 +30776,15 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A93" s="4">
+    <row r="93" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93">
         <v>139682</v>
       </c>
       <c r="B93" t="s">
         <v>1300</v>
       </c>
       <c r="C93" t="s">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="E93" t="s">
         <v>1020</v>
@@ -30799,15 +30817,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A94" s="4">
+    <row r="94" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94">
         <v>134572</v>
       </c>
       <c r="B94" t="s">
         <v>1301</v>
       </c>
       <c r="C94" t="s">
-        <v>1735</v>
+        <v>1728</v>
       </c>
       <c r="E94" t="s">
         <v>1020</v>
@@ -30841,14 +30859,14 @@
       </c>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A95" s="4">
+      <c r="A95">
         <v>134564</v>
       </c>
       <c r="B95" t="s">
         <v>1302</v>
       </c>
       <c r="C95" t="s">
-        <v>1736</v>
+        <v>2013</v>
       </c>
       <c r="E95" t="s">
         <v>1187</v>
@@ -30881,15 +30899,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A96" s="4">
+    <row r="96" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A96">
         <v>139587</v>
       </c>
       <c r="B96" t="s">
         <v>1303</v>
       </c>
       <c r="C96" t="s">
-        <v>1737</v>
+        <v>1729</v>
       </c>
       <c r="E96" t="s">
         <v>743</v>
@@ -30922,15 +30940,15 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A97" s="4">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A97">
         <v>137933</v>
       </c>
       <c r="B97" t="s">
         <v>1304</v>
       </c>
       <c r="C97" t="s">
-        <v>1738</v>
+        <v>1730</v>
       </c>
       <c r="E97" t="s">
         <v>1078</v>
@@ -30963,15 +30981,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A98" s="4">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A98">
         <v>139577</v>
       </c>
       <c r="B98" t="s">
         <v>1305</v>
       </c>
       <c r="C98" t="s">
-        <v>1739</v>
+        <v>1731</v>
       </c>
       <c r="E98" t="s">
         <v>1306</v>
@@ -31004,15 +31022,15 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A99" s="4">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99">
         <v>136615</v>
       </c>
       <c r="B99" t="s">
         <v>1307</v>
       </c>
       <c r="C99" t="s">
-        <v>1740</v>
+        <v>1732</v>
       </c>
       <c r="E99" t="s">
         <v>1308</v>
@@ -31045,15 +31063,15 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A100" s="4">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100">
         <v>135237</v>
       </c>
       <c r="B100" t="s">
         <v>1310</v>
       </c>
       <c r="C100" t="s">
-        <v>1741</v>
+        <v>1733</v>
       </c>
       <c r="E100" t="s">
         <v>889</v>
@@ -31086,15 +31104,15 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A101" s="4">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101">
         <v>135693</v>
       </c>
       <c r="B101" t="s">
         <v>1311</v>
       </c>
       <c r="C101" t="s">
-        <v>1742</v>
+        <v>1734</v>
       </c>
       <c r="E101" t="s">
         <v>642</v>
@@ -31127,15 +31145,15 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A102" s="4">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A102">
         <v>134674</v>
       </c>
       <c r="B102" t="s">
         <v>1312</v>
       </c>
       <c r="C102" t="s">
-        <v>1743</v>
+        <v>1735</v>
       </c>
       <c r="E102" t="s">
         <v>510</v>
@@ -31168,15 +31186,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A103" s="4">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A103">
         <v>139575</v>
       </c>
       <c r="B103" t="s">
         <v>1314</v>
       </c>
       <c r="C103" t="s">
-        <v>1744</v>
+        <v>1736</v>
       </c>
       <c r="E103" t="s">
         <v>536</v>
@@ -31209,15 +31227,15 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A104" s="4">
+    <row r="104" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A104">
         <v>134675</v>
       </c>
       <c r="B104" t="s">
         <v>1315</v>
       </c>
       <c r="C104" t="s">
-        <v>1745</v>
+        <v>1737</v>
       </c>
       <c r="E104" t="s">
         <v>1020</v>
@@ -31251,14 +31269,14 @@
       </c>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A105" s="4">
+      <c r="A105">
         <v>138273</v>
       </c>
       <c r="B105" t="s">
         <v>1316</v>
       </c>
       <c r="C105" t="s">
-        <v>1877</v>
+        <v>2005</v>
       </c>
       <c r="E105" t="s">
         <v>1317</v>
@@ -31292,14 +31310,14 @@
       </c>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A106" s="4">
+      <c r="A106">
         <v>136625</v>
       </c>
       <c r="B106" t="s">
         <v>1318</v>
       </c>
       <c r="C106" t="s">
-        <v>1883</v>
+        <v>2014</v>
       </c>
       <c r="E106" t="s">
         <v>1218</v>
@@ -31332,15 +31350,15 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A107" s="4">
+    <row r="107" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107">
         <v>104180</v>
       </c>
       <c r="B107" t="s">
         <v>1320</v>
       </c>
       <c r="C107" t="s">
-        <v>1746</v>
+        <v>1738</v>
       </c>
       <c r="E107" t="s">
         <v>518</v>
@@ -31374,14 +31392,14 @@
       </c>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A108" s="4">
+      <c r="A108">
         <v>136730</v>
       </c>
       <c r="B108" t="s">
         <v>1322</v>
       </c>
       <c r="C108" t="s">
-        <v>1873</v>
+        <v>2001</v>
       </c>
       <c r="E108" t="s">
         <v>1229</v>
@@ -31414,15 +31432,15 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A109" s="4">
+    <row r="109" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A109">
         <v>138993</v>
       </c>
       <c r="B109" t="s">
         <v>1323</v>
       </c>
       <c r="C109" t="s">
-        <v>1747</v>
+        <v>1739</v>
       </c>
       <c r="E109" t="s">
         <v>486</v>
@@ -31455,15 +31473,15 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A110" s="4">
+    <row r="110" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110">
         <v>134571</v>
       </c>
       <c r="B110" t="s">
         <v>1324</v>
       </c>
       <c r="C110" t="s">
-        <v>1748</v>
+        <v>1740</v>
       </c>
       <c r="E110" t="s">
         <v>510</v>
@@ -31496,15 +31514,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A111" s="4">
+    <row r="111" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111">
         <v>136676</v>
       </c>
       <c r="B111" t="s">
         <v>1325</v>
       </c>
       <c r="C111" t="s">
-        <v>1749</v>
+        <v>1741</v>
       </c>
       <c r="E111" t="s">
         <v>536</v>
@@ -31537,15 +31555,15 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A112" s="4">
+    <row r="112" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112">
         <v>137865</v>
       </c>
       <c r="B112" t="s">
         <v>1326</v>
       </c>
       <c r="C112" t="s">
-        <v>1750</v>
+        <v>1742</v>
       </c>
       <c r="E112" t="s">
         <v>1077</v>
@@ -31578,15 +31596,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A113" s="4">
+    <row r="113" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113">
         <v>135332</v>
       </c>
       <c r="B113" t="s">
         <v>1468</v>
       </c>
       <c r="C113" t="s">
-        <v>1751</v>
+        <v>1743</v>
       </c>
       <c r="E113" t="s">
         <v>743</v>
@@ -31619,15 +31637,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A114" s="4">
+    <row r="114" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114">
         <v>105316</v>
       </c>
       <c r="B114" t="s">
         <v>1328</v>
       </c>
       <c r="C114" t="s">
-        <v>1752</v>
+        <v>1744</v>
       </c>
       <c r="E114" t="s">
         <v>571</v>
@@ -31660,15 +31678,15 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A115" s="4">
+    <row r="115" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115">
         <v>105419</v>
       </c>
       <c r="B115" t="s">
         <v>1329</v>
       </c>
       <c r="C115" t="s">
-        <v>1753</v>
+        <v>1745</v>
       </c>
       <c r="E115" t="s">
         <v>1282</v>
@@ -31701,15 +31719,15 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A116" s="4">
+    <row r="116" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116">
         <v>137874</v>
       </c>
       <c r="B116" t="s">
         <v>1330</v>
       </c>
       <c r="C116" t="s">
-        <v>1754</v>
+        <v>1746</v>
       </c>
       <c r="E116" t="s">
         <v>886</v>
@@ -31742,15 +31760,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A117" s="4">
+    <row r="117" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117">
         <v>137668</v>
       </c>
       <c r="B117" t="s">
         <v>1331</v>
       </c>
       <c r="C117" t="s">
-        <v>1755</v>
+        <v>1747</v>
       </c>
       <c r="E117" t="s">
         <v>510</v>
@@ -31783,15 +31801,15 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A118" s="4">
+    <row r="118" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118">
         <v>138540</v>
       </c>
       <c r="B118" t="s">
         <v>1332</v>
       </c>
       <c r="C118" t="s">
-        <v>1756</v>
+        <v>1748</v>
       </c>
       <c r="E118" t="s">
         <v>474</v>
@@ -31825,14 +31843,14 @@
       </c>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A119" s="4">
+      <c r="A119">
         <v>138266</v>
       </c>
       <c r="B119" t="s">
         <v>1333</v>
       </c>
       <c r="C119" t="s">
-        <v>1876</v>
+        <v>2004</v>
       </c>
       <c r="E119" t="s">
         <v>1285</v>
@@ -31866,14 +31884,14 @@
       </c>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A120" s="4">
+      <c r="A120">
         <v>138264</v>
       </c>
       <c r="B120" t="s">
         <v>1334</v>
       </c>
       <c r="C120" t="s">
-        <v>1884</v>
+        <v>2015</v>
       </c>
       <c r="E120" t="s">
         <v>1243</v>
@@ -31906,15 +31924,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A121" s="4">
+    <row r="121" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121">
         <v>135671</v>
       </c>
       <c r="B121" t="s">
         <v>1335</v>
       </c>
       <c r="C121" t="s">
-        <v>1757</v>
+        <v>1749</v>
       </c>
       <c r="E121" t="s">
         <v>510</v>
@@ -31947,15 +31965,15 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A122" s="4">
+    <row r="122" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122">
         <v>138475</v>
       </c>
       <c r="B122" t="s">
         <v>1336</v>
       </c>
       <c r="C122" t="s">
-        <v>1758</v>
+        <v>1750</v>
       </c>
       <c r="E122" t="s">
         <v>486</v>
@@ -31989,14 +32007,14 @@
       </c>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A123" s="4">
+      <c r="A123">
         <v>138272</v>
       </c>
       <c r="B123" t="s">
         <v>1337</v>
       </c>
       <c r="C123" t="s">
-        <v>1885</v>
+        <v>2016</v>
       </c>
       <c r="E123" t="s">
         <v>1133</v>
@@ -32029,15 +32047,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A124" s="4">
+    <row r="124" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124">
         <v>136690</v>
       </c>
       <c r="B124" t="s">
         <v>1338</v>
       </c>
       <c r="C124" t="s">
-        <v>1759</v>
+        <v>1751</v>
       </c>
       <c r="E124" t="s">
         <v>642</v>
@@ -32070,15 +32088,15 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A125" s="4">
+    <row r="125" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125">
         <v>136626</v>
       </c>
       <c r="B125" t="s">
         <v>1340</v>
       </c>
       <c r="C125" t="s">
-        <v>1760</v>
+        <v>1752</v>
       </c>
       <c r="E125" t="s">
         <v>1219</v>
@@ -32111,15 +32129,15 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A126" s="4">
+    <row r="126" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126">
         <v>135663</v>
       </c>
       <c r="B126" t="s">
         <v>1236</v>
       </c>
       <c r="C126" t="s">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="E126" t="s">
         <v>510</v>
@@ -32152,15 +32170,15 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A127" s="4">
+    <row r="127" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127">
         <v>138956</v>
       </c>
       <c r="B127" t="s">
         <v>1342</v>
       </c>
       <c r="C127" t="s">
-        <v>1762</v>
+        <v>1754</v>
       </c>
       <c r="E127" t="s">
         <v>486</v>
@@ -32193,15 +32211,15 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A128" s="4">
+    <row r="128" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A128">
         <v>136691</v>
       </c>
       <c r="B128" t="s">
         <v>1343</v>
       </c>
       <c r="C128" t="s">
-        <v>1763</v>
+        <v>1755</v>
       </c>
       <c r="E128" t="s">
         <v>743</v>
@@ -32234,15 +32252,15 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A129" s="4">
+    <row r="129" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A129">
         <v>136672</v>
       </c>
       <c r="B129" t="s">
         <v>1344</v>
       </c>
       <c r="C129" t="s">
-        <v>1764</v>
+        <v>1756</v>
       </c>
       <c r="E129" t="s">
         <v>743</v>
@@ -32275,15 +32293,15 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A130" s="4">
+    <row r="130" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A130">
         <v>135235</v>
       </c>
       <c r="B130" t="s">
         <v>1345</v>
       </c>
       <c r="C130" t="s">
-        <v>1765</v>
+        <v>1757</v>
       </c>
       <c r="E130" t="s">
         <v>1179</v>
@@ -32317,14 +32335,14 @@
       </c>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A131" s="4">
+      <c r="A131">
         <v>138276</v>
       </c>
       <c r="B131" t="s">
         <v>1346</v>
       </c>
       <c r="C131" t="s">
-        <v>1875</v>
+        <v>2003</v>
       </c>
       <c r="E131" t="s">
         <v>1020</v>
@@ -32357,15 +32375,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A132" s="4">
+    <row r="132" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A132">
         <v>104181</v>
       </c>
       <c r="B132" t="s">
         <v>1347</v>
       </c>
       <c r="C132" t="s">
-        <v>1766</v>
+        <v>1758</v>
       </c>
       <c r="E132" t="s">
         <v>797</v>
@@ -32398,15 +32416,15 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A133" s="4">
+    <row r="133" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A133">
         <v>134662</v>
       </c>
       <c r="B133" t="s">
         <v>1348</v>
       </c>
       <c r="C133" t="s">
-        <v>1767</v>
+        <v>1759</v>
       </c>
       <c r="E133" t="s">
         <v>540</v>
@@ -32439,15 +32457,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A134" s="4">
+    <row r="134" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A134">
         <v>137836</v>
       </c>
       <c r="B134" t="s">
         <v>1349</v>
       </c>
       <c r="C134" t="s">
-        <v>1768</v>
+        <v>1760</v>
       </c>
       <c r="E134" t="s">
         <v>1350</v>
@@ -32480,15 +32498,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A135" s="4">
+    <row r="135" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A135">
         <v>137680</v>
       </c>
       <c r="B135" t="s">
         <v>1351</v>
       </c>
       <c r="C135" t="s">
-        <v>1769</v>
+        <v>1761</v>
       </c>
       <c r="E135" t="s">
         <v>1352</v>
@@ -32521,15 +32539,15 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A136" s="4">
+    <row r="136" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A136">
         <v>137681</v>
       </c>
       <c r="B136" t="s">
         <v>1355</v>
       </c>
       <c r="C136" t="s">
-        <v>1770</v>
+        <v>1762</v>
       </c>
       <c r="E136" t="s">
         <v>1356</v>
@@ -32562,15 +32580,15 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A137" s="4">
+    <row r="137" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A137">
         <v>139350</v>
       </c>
       <c r="B137" t="s">
         <v>1469</v>
       </c>
       <c r="C137" t="s">
-        <v>1771</v>
+        <v>1763</v>
       </c>
       <c r="E137" t="s">
         <v>743</v>
@@ -32603,15 +32621,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A138" s="4">
+    <row r="138" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A138">
         <v>135331</v>
       </c>
       <c r="B138" t="s">
         <v>1470</v>
       </c>
       <c r="C138" t="s">
-        <v>1772</v>
+        <v>1764</v>
       </c>
       <c r="E138" t="s">
         <v>642</v>
@@ -32645,14 +32663,14 @@
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A139" s="4">
+      <c r="A139">
         <v>138269</v>
       </c>
       <c r="B139" t="s">
         <v>1357</v>
       </c>
       <c r="C139" t="s">
-        <v>1886</v>
+        <v>2017</v>
       </c>
       <c r="E139" t="s">
         <v>1127</v>
@@ -32685,15 +32703,15 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A140" s="4">
+    <row r="140" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A140">
         <v>134562</v>
       </c>
       <c r="B140" t="s">
         <v>1358</v>
       </c>
       <c r="C140" t="s">
-        <v>1773</v>
+        <v>1765</v>
       </c>
       <c r="E140" t="s">
         <v>540</v>
@@ -32726,15 +32744,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A141" s="4">
+    <row r="141" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A141">
         <v>139353</v>
       </c>
       <c r="B141" t="s">
         <v>1471</v>
       </c>
       <c r="C141" t="s">
-        <v>1774</v>
+        <v>1766</v>
       </c>
       <c r="E141" t="s">
         <v>743</v>
@@ -32767,15 +32785,15 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A142" s="4">
+    <row r="142" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A142">
         <v>139576</v>
       </c>
       <c r="B142" t="s">
         <v>1359</v>
       </c>
       <c r="C142" t="s">
-        <v>1775</v>
+        <v>1767</v>
       </c>
       <c r="E142" t="s">
         <v>1126</v>
@@ -32808,15 +32826,15 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A143" s="4">
+    <row r="143" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A143">
         <v>136645</v>
       </c>
       <c r="B143" t="s">
         <v>1360</v>
       </c>
       <c r="C143" t="s">
-        <v>1776</v>
+        <v>1768</v>
       </c>
       <c r="E143" t="s">
         <v>714</v>
@@ -32849,15 +32867,15 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A144" s="4">
+    <row r="144" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A144">
         <v>135694</v>
       </c>
       <c r="B144" t="s">
         <v>1361</v>
       </c>
       <c r="C144" t="s">
-        <v>1777</v>
+        <v>1769</v>
       </c>
       <c r="E144" t="s">
         <v>743</v>
@@ -32890,15 +32908,15 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A145" s="4">
+    <row r="145" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A145">
         <v>137832</v>
       </c>
       <c r="B145" t="s">
         <v>1362</v>
       </c>
       <c r="C145" t="s">
-        <v>1778</v>
+        <v>1770</v>
       </c>
       <c r="E145" t="s">
         <v>670</v>
@@ -32931,15 +32949,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A146" s="4">
+    <row r="146" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A146">
         <v>136435</v>
       </c>
       <c r="B146" t="s">
         <v>1363</v>
       </c>
       <c r="C146" t="s">
-        <v>1779</v>
+        <v>1771</v>
       </c>
       <c r="E146" t="s">
         <v>536</v>
@@ -32972,15 +32990,15 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A147" s="4">
+    <row r="147" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A147">
         <v>137937</v>
       </c>
       <c r="B147" t="s">
         <v>1364</v>
       </c>
       <c r="C147" t="s">
-        <v>1780</v>
+        <v>1772</v>
       </c>
       <c r="E147" t="s">
         <v>1083</v>
@@ -33013,15 +33031,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A148" s="4">
+    <row r="148" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A148">
         <v>139674</v>
       </c>
       <c r="B148" t="s">
         <v>1365</v>
       </c>
       <c r="C148" t="s">
-        <v>1781</v>
+        <v>1773</v>
       </c>
       <c r="E148" t="s">
         <v>510</v>
@@ -33054,15 +33072,15 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A149" s="4">
+    <row r="149" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A149">
         <v>136605</v>
       </c>
       <c r="B149" t="s">
         <v>1366</v>
       </c>
       <c r="C149" t="s">
-        <v>1782</v>
+        <v>1774</v>
       </c>
       <c r="E149" t="s">
         <v>1367</v>
@@ -33096,14 +33114,14 @@
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A150" s="4">
+      <c r="A150">
         <v>136956</v>
       </c>
       <c r="B150" t="s">
         <v>1369</v>
       </c>
       <c r="C150" t="s">
-        <v>1887</v>
+        <v>2018</v>
       </c>
       <c r="E150" t="s">
         <v>642</v>
@@ -33136,15 +33154,15 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A151" s="4">
+    <row r="151" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A151">
         <v>136677</v>
       </c>
       <c r="B151" t="s">
         <v>1370</v>
       </c>
       <c r="C151" t="s">
-        <v>1783</v>
+        <v>1775</v>
       </c>
       <c r="E151" t="s">
         <v>1306</v>
@@ -33177,15 +33195,15 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A152" s="4">
+    <row r="152" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A152">
         <v>137863</v>
       </c>
       <c r="B152" t="s">
         <v>1371</v>
       </c>
       <c r="C152" t="s">
-        <v>1784</v>
+        <v>1776</v>
       </c>
       <c r="E152" t="s">
         <v>1077</v>
@@ -33218,15 +33236,15 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A153" s="4">
+    <row r="153" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A153">
         <v>138470</v>
       </c>
       <c r="B153" t="s">
         <v>1336</v>
       </c>
       <c r="C153" t="s">
-        <v>1785</v>
+        <v>1777</v>
       </c>
       <c r="E153" t="s">
         <v>486</v>
@@ -33259,15 +33277,15 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A154" s="4">
+    <row r="154" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A154">
         <v>138465</v>
       </c>
       <c r="B154" t="s">
         <v>1288</v>
       </c>
       <c r="C154" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="E154" t="s">
         <v>474</v>
@@ -33300,15 +33318,15 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A155" s="4">
+    <row r="155" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A155">
         <v>105416</v>
       </c>
       <c r="B155" t="s">
         <v>1372</v>
       </c>
       <c r="C155" t="s">
-        <v>1787</v>
+        <v>1779</v>
       </c>
       <c r="E155" t="s">
         <v>571</v>
@@ -33341,15 +33359,15 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A156" s="4">
+    <row r="156" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A156">
         <v>134663</v>
       </c>
       <c r="B156" t="s">
         <v>1373</v>
       </c>
       <c r="C156" t="s">
-        <v>1788</v>
+        <v>1780</v>
       </c>
       <c r="E156" t="s">
         <v>510</v>
@@ -33383,14 +33401,14 @@
       </c>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A157" s="4">
+      <c r="A157">
         <v>135664</v>
       </c>
       <c r="B157" t="s">
         <v>1374</v>
       </c>
       <c r="C157" t="s">
-        <v>1789</v>
+        <v>2019</v>
       </c>
       <c r="E157" t="s">
         <v>1187</v>
@@ -33423,15 +33441,15 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A158" s="4">
+    <row r="158" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A158">
         <v>135236</v>
       </c>
       <c r="B158" t="s">
         <v>1375</v>
       </c>
       <c r="C158" t="s">
-        <v>1790</v>
+        <v>1781</v>
       </c>
       <c r="E158" t="s">
         <v>1180</v>
@@ -33465,7 +33483,50 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O158" xr:uid="{00000000-0009-0000-0000-000006000000}"/>
+  <autoFilter ref="A1:O158" xr:uid="{00000000-0009-0000-0000-000006000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_square/v1686671954/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/aura6-60-900-340-olympia.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_square/v1741957591/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/maax-kameleon-47w-shower-door-rs739-fluted-db.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/t_square/v1741957958/abg-graphics/original-images/maax/retail/home-depot-exclusives/doors/tonik/maax-tonik-47w-shower-door-rs738-fluted-db.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1633110401/abg-graphics/e-commerce/barracuda-pin-connect/duel/duel-sh60-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663272804/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-49-51x68-mb-square-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663272831/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-57-59x68-ch-round-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663272840/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-57-59x68-mb-round-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663272956/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-square-handle-bn-zoom.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273001/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-43-45x68-mb-square-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273033/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-49-51x68-bn-round-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273080/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-43-45x68-bn-round-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273167/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-27-29x68-mb-round-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273186/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-27-29x68-bn-square-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273191/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-31-33x68-bn-square-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273202/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-31-33x68-ch-round-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1663273249/abg-graphics/original-images/maax/multi-brand/doors/manhattan/jpeg/maax-manhattan-37-39x68-ch-round-handle-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1667593848/abg-graphics/original-images/maax/multi-brand/doors/uptown-pivot/jpeg/mixed-finish/uptown-pivot-sh60-db-bm-generic-walls-olympia-base.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1667593855/abg-graphics/original-images/maax/multi-brand/doors/uptown-pivot/jpeg/mixed-finish/uptown-pivot-sh48-mb-wd-u-carrara-olympia-base.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1675700017/abg-graphics/original-images/maax/multi-brand/doors/duel-alto/jpeg/4836-duel-alto-bn-mb-utile-tosca-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1675700022/abg-graphics/original-images/maax/multi-brand/doors/duel-alto/jpeg/6036-duel-alto-ch-mw-utile-tosca.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686671954/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-6mm/jpeg/aura6-60-900-340-olympia.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686673218/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-8mm/jpeg/aura8-60-900-340-olympia.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686673630/abg-graphics/original-images/maax/retail/retail/doors/aura/aura-8mm/jpeg/aura8-48-900-340-b3square.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1686675109/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/kameleon-60-900-340.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029122/abg-graphics/original-images/maax/multi-brand/doors/polar-shower/jpeg/maax-polar48-bypass-ch-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029126/abg-graphics/original-images/maax/multi-brand/doors/polar-shower/jpeg/maax-polar60-bypass-ch-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029242/abg-graphics/original-images/maax/multi-brand/doors/polar-pivot/maax-polar-pivot-27-29-ch-1.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1692029243/abg-graphics/original-images/maax/multi-brand/doors/polar-pivot/maax-polar-pivot-33-35-ch-2.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1726861944/abg-graphics/original-images/maax/multi-brand/doors/pivolok/jpeg/maax-pivolok-23-ch-raindrop-close-pano.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1726861957/abg-graphics/original-images/maax/multi-brand/doors/pivolok/jpeg/maax-pivolok-27-ch-raindrop-close-pano.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/v1737472895/abg-graphics/original-images/maax/multi-brand/doors/kameleon/6-8-mm/jpeg/kameleon-60-978-340.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/w_1500,h_1260,c_fill/v1660858069/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-48-odyssey-mb-u-tux-zone-deco.jpg"/>
+        <filter val="https://res.cloudinary.com/american-bath-group/image/upload/c_crop,w_1260,h_1260/w_1500,h_1260,c_fill/v1664220622/abg-graphics/original-images/maax/multi-brand/doors/odyssey/jpeg/maax-odyssey-sh-60-ch-zone-base-deco.jpg"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C48" r:id="rId1" xr:uid="{418F516E-2E2B-49D8-B66A-753E68587D51}"/>
+    <hyperlink ref="C60" r:id="rId2" xr:uid="{33E723EC-4207-4B4C-A8F7-92003E66D403}"/>
+    <hyperlink ref="C88" r:id="rId3" xr:uid="{AF157174-0343-42AB-A9D7-EB44DFB48C3C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -33475,14 +33536,14 @@
   <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="47.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47.44140625" customWidth="1"/>
+    <col min="3" max="3" width="205.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.6640625" bestFit="1" customWidth="1"/>
@@ -33532,14 +33593,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>139398</v>
       </c>
       <c r="B2" t="s">
         <v>1380</v>
       </c>
       <c r="C2" t="s">
-        <v>1791</v>
+        <v>1782</v>
       </c>
       <c r="E2" t="s">
         <v>486</v>
@@ -33567,14 +33628,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>138522</v>
       </c>
       <c r="B3" t="s">
         <v>1402</v>
       </c>
       <c r="C3" t="s">
-        <v>1792</v>
+        <v>1783</v>
       </c>
       <c r="E3" t="s">
         <v>1187</v>
@@ -33602,14 +33663,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>139351</v>
       </c>
       <c r="B4" t="s">
         <v>1455</v>
       </c>
       <c r="C4" t="s">
-        <v>1793</v>
+        <v>1784</v>
       </c>
       <c r="E4" t="s">
         <v>743</v>
@@ -33637,14 +33698,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>139354</v>
       </c>
       <c r="B5" t="s">
         <v>1456</v>
       </c>
       <c r="C5" t="s">
-        <v>1794</v>
+        <v>1785</v>
       </c>
       <c r="E5" t="s">
         <v>743</v>
@@ -33672,14 +33733,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>135330</v>
       </c>
       <c r="B6" t="s">
         <v>1457</v>
       </c>
       <c r="C6" t="s">
-        <v>1795</v>
+        <v>1786</v>
       </c>
       <c r="E6" t="s">
         <v>743</v>
@@ -33707,14 +33768,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>136692</v>
       </c>
       <c r="B7" t="s">
         <v>1400</v>
       </c>
       <c r="C7" t="s">
-        <v>1796</v>
+        <v>1787</v>
       </c>
       <c r="E7" t="s">
         <v>743</v>
@@ -33742,14 +33803,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>136695</v>
       </c>
       <c r="B8" t="s">
         <v>1377</v>
       </c>
       <c r="C8" t="s">
-        <v>1797</v>
+        <v>1788</v>
       </c>
       <c r="E8" t="s">
         <v>743</v>
@@ -33777,14 +33838,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>135692</v>
       </c>
       <c r="B9" t="s">
         <v>1407</v>
       </c>
       <c r="C9" t="s">
-        <v>1798</v>
+        <v>1789</v>
       </c>
       <c r="E9" t="s">
         <v>743</v>
@@ -33812,14 +33873,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>135695</v>
       </c>
       <c r="B10" t="s">
         <v>1410</v>
       </c>
       <c r="C10" t="s">
-        <v>1799</v>
+        <v>1790</v>
       </c>
       <c r="E10" t="s">
         <v>743</v>
@@ -33847,14 +33908,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>135320</v>
       </c>
       <c r="B11" t="s">
         <v>1408</v>
       </c>
       <c r="C11" t="s">
-        <v>1800</v>
+        <v>1791</v>
       </c>
       <c r="E11" t="s">
         <v>743</v>
@@ -33882,14 +33943,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>135245</v>
       </c>
       <c r="B12" t="s">
         <v>1401</v>
       </c>
       <c r="C12" t="s">
-        <v>1801</v>
+        <v>1792</v>
       </c>
       <c r="E12" t="s">
         <v>889</v>
@@ -33917,14 +33978,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13">
         <v>135246</v>
       </c>
       <c r="B13" t="s">
         <v>1404</v>
       </c>
       <c r="C13" t="s">
-        <v>1802</v>
+        <v>1793</v>
       </c>
       <c r="E13" t="s">
         <v>843</v>
@@ -33952,14 +34013,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14">
         <v>136270</v>
       </c>
       <c r="B14" t="s">
         <v>1386</v>
       </c>
       <c r="C14" t="s">
-        <v>1860</v>
+        <v>1842</v>
       </c>
       <c r="E14" t="s">
         <v>743</v>
@@ -33987,14 +34048,14 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15">
         <v>138760</v>
       </c>
       <c r="B15" t="s">
         <v>1379</v>
       </c>
       <c r="C15" t="s">
-        <v>1803</v>
+        <v>1794</v>
       </c>
       <c r="E15" t="s">
         <v>743</v>
@@ -34022,14 +34083,14 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16">
         <v>138480</v>
       </c>
       <c r="B16" t="s">
         <v>1390</v>
       </c>
       <c r="C16" t="s">
-        <v>1804</v>
+        <v>1795</v>
       </c>
       <c r="E16" t="s">
         <v>486</v>
@@ -34057,14 +34118,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
+      <c r="A17">
         <v>138485</v>
       </c>
       <c r="B17" t="s">
         <v>1390</v>
       </c>
       <c r="C17" t="s">
-        <v>1805</v>
+        <v>1796</v>
       </c>
       <c r="E17" t="s">
         <v>486</v>
@@ -34092,14 +34153,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18">
         <v>137682</v>
       </c>
       <c r="B18" t="s">
         <v>1388</v>
       </c>
       <c r="C18" t="s">
-        <v>1806</v>
+        <v>1797</v>
       </c>
       <c r="E18" t="s">
         <v>1356</v>
@@ -34127,14 +34188,14 @@
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
+      <c r="A19">
         <v>134560</v>
       </c>
       <c r="B19" t="s">
         <v>1389</v>
       </c>
       <c r="C19" t="s">
-        <v>1807</v>
+        <v>1798</v>
       </c>
       <c r="E19" t="s">
         <v>1187</v>
@@ -34162,14 +34223,14 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20">
         <v>134561</v>
       </c>
       <c r="B20" t="s">
         <v>1381</v>
       </c>
       <c r="C20" t="s">
-        <v>1808</v>
+        <v>1799</v>
       </c>
       <c r="E20" t="s">
         <v>1020</v>
@@ -34197,14 +34258,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21">
         <v>134573</v>
       </c>
       <c r="B21" t="s">
         <v>1397</v>
       </c>
-      <c r="C21" t="s">
-        <v>1861</v>
+      <c r="C21" s="4" t="s">
+        <v>2022</v>
       </c>
       <c r="E21" t="s">
         <v>1020</v>
@@ -34232,14 +34293,14 @@
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22">
         <v>134660</v>
       </c>
       <c r="B22" t="s">
         <v>1383</v>
       </c>
       <c r="C22" t="s">
-        <v>1809</v>
+        <v>1800</v>
       </c>
       <c r="E22" t="s">
         <v>1187</v>
@@ -34267,14 +34328,14 @@
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
+      <c r="A23">
         <v>134661</v>
       </c>
       <c r="B23" t="s">
         <v>1411</v>
       </c>
-      <c r="C23" t="s">
-        <v>1861</v>
+      <c r="C23" s="4" t="s">
+        <v>2022</v>
       </c>
       <c r="E23" t="s">
         <v>1020</v>
@@ -34302,14 +34363,14 @@
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24">
         <v>134670</v>
       </c>
       <c r="B24" t="s">
         <v>1393</v>
       </c>
       <c r="C24" t="s">
-        <v>1810</v>
+        <v>1801</v>
       </c>
       <c r="E24" t="s">
         <v>1020</v>
@@ -34337,14 +34398,14 @@
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
+      <c r="A25">
         <v>139470</v>
       </c>
       <c r="B25" t="s">
         <v>1394</v>
       </c>
       <c r="C25" t="s">
-        <v>1811</v>
+        <v>1802</v>
       </c>
       <c r="E25" t="s">
         <v>1020</v>
@@ -34372,14 +34433,14 @@
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26">
         <v>139683</v>
       </c>
       <c r="B26" t="s">
         <v>1396</v>
       </c>
       <c r="C26" t="s">
-        <v>1812</v>
+        <v>1803</v>
       </c>
       <c r="E26" t="s">
         <v>1020</v>
@@ -34407,14 +34468,14 @@
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27">
         <v>139661</v>
       </c>
       <c r="B27" t="s">
         <v>1382</v>
       </c>
-      <c r="C27" t="s">
-        <v>1813</v>
+      <c r="C27" s="4" t="s">
+        <v>2023</v>
       </c>
       <c r="E27" t="s">
         <v>1020</v>
@@ -34442,14 +34503,14 @@
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A28" s="4">
+      <c r="A28">
         <v>139680</v>
       </c>
       <c r="B28" t="s">
         <v>1399</v>
       </c>
       <c r="C28" t="s">
-        <v>1814</v>
+        <v>1804</v>
       </c>
       <c r="E28" t="s">
         <v>1020</v>
@@ -34477,14 +34538,14 @@
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29">
         <v>138994</v>
       </c>
       <c r="B29" t="s">
         <v>1458</v>
       </c>
       <c r="C29" t="s">
-        <v>1815</v>
+        <v>1805</v>
       </c>
       <c r="E29" t="s">
         <v>486</v>
@@ -34512,14 +34573,14 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
+      <c r="A30">
         <v>105410</v>
       </c>
       <c r="B30" t="s">
         <v>1392</v>
       </c>
-      <c r="C30" t="s">
-        <v>1862</v>
+      <c r="C30" s="4" t="s">
+        <v>2024</v>
       </c>
       <c r="E30" t="s">
         <v>1020</v>
@@ -34547,14 +34608,14 @@
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31">
         <v>135660</v>
       </c>
       <c r="B31" t="s">
         <v>1387</v>
       </c>
-      <c r="C31" t="s">
-        <v>1816</v>
+      <c r="C31" s="4" t="s">
+        <v>2025</v>
       </c>
       <c r="E31" t="s">
         <v>1187</v>
@@ -34582,14 +34643,14 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="A32">
         <v>135661</v>
       </c>
       <c r="B32" t="s">
         <v>1391</v>
       </c>
-      <c r="C32" t="s">
-        <v>1817</v>
+      <c r="C32" s="4" t="s">
+        <v>2026</v>
       </c>
       <c r="E32" t="s">
         <v>1020</v>
@@ -34617,14 +34678,14 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33">
         <v>135673</v>
       </c>
       <c r="B33" t="s">
         <v>1384</v>
       </c>
       <c r="C33" t="s">
-        <v>1818</v>
+        <v>1806</v>
       </c>
       <c r="E33" t="s">
         <v>1020</v>
@@ -34652,14 +34713,14 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="4">
+      <c r="A34">
         <v>137666</v>
       </c>
       <c r="B34" t="s">
         <v>1398</v>
       </c>
-      <c r="C34" t="s">
-        <v>1816</v>
+      <c r="C34" s="4" t="s">
+        <v>2025</v>
       </c>
       <c r="E34" t="s">
         <v>1020</v>
@@ -34687,14 +34748,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="4">
+      <c r="A35">
         <v>135670</v>
       </c>
       <c r="B35" t="s">
         <v>1266</v>
       </c>
       <c r="C35" t="s">
-        <v>1819</v>
+        <v>1807</v>
       </c>
       <c r="E35" t="s">
         <v>1020</v>
@@ -34722,14 +34783,14 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36">
         <v>105409</v>
       </c>
       <c r="B36" t="s">
         <v>1409</v>
       </c>
       <c r="C36" t="s">
-        <v>1820</v>
+        <v>1808</v>
       </c>
       <c r="E36" t="s">
         <v>518</v>
@@ -34762,6 +34823,15 @@
       <sortCondition ref="L1:L36"/>
     </sortState>
   </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="C21" r:id="rId1" xr:uid="{6C20AE40-C76B-4C48-A66B-2122736D9F11}"/>
+    <hyperlink ref="C23" r:id="rId2" xr:uid="{5CD6654B-C6A5-4691-9E89-D614F5080995}"/>
+    <hyperlink ref="C27" r:id="rId3" xr:uid="{AC94A390-E79B-44E6-972D-A9479D4CDD12}"/>
+    <hyperlink ref="C30" r:id="rId4" xr:uid="{872C8317-61E7-4B96-8B26-1A244FEDF326}"/>
+    <hyperlink ref="C31" r:id="rId5" xr:uid="{0BF79A74-19E7-4BD8-A0DB-61D3791D9A27}"/>
+    <hyperlink ref="C32" r:id="rId6" xr:uid="{4B546625-828B-4B64-B388-642AACE3CA64}"/>
+    <hyperlink ref="C34" r:id="rId7" xr:uid="{721B6A6C-E85C-4B4A-8E78-29F4419ACDA3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -34772,14 +34842,14 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.88671875" customWidth="1"/>
     <col min="2" max="2" width="44.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.77734375" customWidth="1"/>
+    <col min="3" max="3" width="226.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="11" width="25.88671875" customWidth="1"/>
     <col min="14" max="14" width="61.6640625" customWidth="1"/>
   </cols>
@@ -34823,14 +34893,14 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2">
         <v>134957</v>
       </c>
       <c r="B2" t="s">
         <v>1414</v>
       </c>
       <c r="C2" t="s">
-        <v>1821</v>
+        <v>1809</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -34861,14 +34931,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3">
         <v>135230</v>
       </c>
       <c r="B3" t="s">
         <v>1461</v>
       </c>
-      <c r="C3" t="s">
-        <v>1857</v>
+      <c r="C3" s="4" t="s">
+        <v>2027</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -34899,14 +34969,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4">
         <v>134955</v>
       </c>
       <c r="B4" t="s">
         <v>1416</v>
       </c>
       <c r="C4" t="s">
-        <v>1822</v>
+        <v>1810</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -34937,14 +35007,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5">
         <v>134954</v>
       </c>
       <c r="B5" t="s">
         <v>1417</v>
       </c>
       <c r="C5" t="s">
-        <v>1823</v>
+        <v>1811</v>
       </c>
       <c r="D5" t="s">
         <v>249</v>
@@ -34975,14 +35045,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6">
         <v>107545</v>
       </c>
       <c r="B6" t="s">
         <v>1460</v>
       </c>
-      <c r="C6" t="s">
-        <v>1858</v>
+      <c r="C6" s="4" t="s">
+        <v>2028</v>
       </c>
       <c r="D6" t="s">
         <v>249</v>
@@ -35013,14 +35083,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7">
         <v>134952</v>
       </c>
       <c r="B7" t="s">
         <v>1419</v>
       </c>
       <c r="C7" t="s">
-        <v>1824</v>
+        <v>1812</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -35051,14 +35121,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8">
         <v>134951</v>
       </c>
       <c r="B8" t="s">
         <v>1420</v>
       </c>
       <c r="C8" t="s">
-        <v>1825</v>
+        <v>1813</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -35089,14 +35159,14 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9">
         <v>134950</v>
       </c>
       <c r="B9" t="s">
         <v>1421</v>
       </c>
       <c r="C9" t="s">
-        <v>1826</v>
+        <v>1814</v>
       </c>
       <c r="D9" t="s">
         <v>249</v>
@@ -35127,14 +35197,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10">
         <v>107546</v>
       </c>
       <c r="B10" t="s">
         <v>1459</v>
       </c>
-      <c r="C10" t="s">
-        <v>1859</v>
+      <c r="C10" s="4" t="s">
+        <v>2029</v>
       </c>
       <c r="D10" t="s">
         <v>39</v>
@@ -35165,14 +35235,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11">
         <v>134956</v>
       </c>
       <c r="B11" t="s">
         <v>1422</v>
       </c>
       <c r="C11" t="s">
-        <v>1827</v>
+        <v>1815</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
@@ -35203,14 +35273,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12">
         <v>134953</v>
       </c>
       <c r="B12" t="s">
         <v>1423</v>
       </c>
       <c r="C12" t="s">
-        <v>1828</v>
+        <v>1816</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -35242,6 +35312,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L12" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{78EB8975-4134-4EEE-8F6A-4C68FB1DFE4D}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{3A57CF77-EA53-4D70-8F35-A309A9EB3217}"/>
+    <hyperlink ref="C10" r:id="rId3" xr:uid="{D0C97C2A-90D5-401E-B15B-06E203F80486}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>